--- a/TOEIC-materials/2. Dạy kèm/Nội dung học.xlsx
+++ b/TOEIC-materials/2. Dạy kèm/Nội dung học.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBFA3B3-766A-456C-A850-7B54D8E1D736}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lộ trình học LC Cơ Bản" sheetId="4" r:id="rId1"/>
     <sheet name="Lộ trình học RC Cơ Bản" sheetId="6" r:id="rId2"/>
     <sheet name="Part 7" sheetId="8" r:id="rId3"/>
-    <sheet name="Dạy kèm" sheetId="9" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId4"/>
+    <sheet name="Bảng giá" sheetId="11" r:id="rId5"/>
+    <sheet name="DS Dạy kèm" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="337">
   <si>
     <t>Luyện Tập Part 2</t>
   </si>
@@ -41,9 +43,6 @@
     <t>Buổi</t>
   </si>
   <si>
-    <t>Số buổi</t>
-  </si>
-  <si>
     <t>Danh từ</t>
   </si>
   <si>
@@ -56,9 +55,6 @@
     <t>Đại từ</t>
   </si>
   <si>
-    <t xml:space="preserve">Bài tập </t>
-  </si>
-  <si>
     <t>Bài test số 1: Danh từ, Tính từ, Trạng từ</t>
   </si>
   <si>
@@ -90,15 +86,6 @@
   </si>
   <si>
     <t>Part 7.2: Câu hỏi NOT/TRUE, Câu hỏi suy luận, Câu hỏi từ đồng nghĩa</t>
-  </si>
-  <si>
-    <t>46 câu Danh từ, Tính từ, Trạng từ</t>
-  </si>
-  <si>
-    <t>46 câu Danh từ, Tính từ, Trạng từ, Đại từ</t>
-  </si>
-  <si>
-    <t>34 câu Các hình thức thuộc động từ, 12 câu từ vựng</t>
   </si>
   <si>
     <t>Passage 03</t>
@@ -871,57 +858,6 @@
     <t>Question 190, Test 04, ETS 1200</t>
   </si>
   <si>
-    <t>Tên</t>
-  </si>
-  <si>
-    <t>Địa chỉ</t>
-  </si>
-  <si>
-    <t>SĐT</t>
-  </si>
-  <si>
-    <t>Lịch học</t>
-  </si>
-  <si>
-    <t>Học phí</t>
-  </si>
-  <si>
-    <t>Mục tiêu</t>
-  </si>
-  <si>
-    <t>10 câu Danh từ, 5 câu từ vựng</t>
-  </si>
-  <si>
-    <t>10 câu Tính từ, 5 câu từ vựng</t>
-  </si>
-  <si>
-    <t>10 câu Trạng từ, 5 câu từ vựng</t>
-  </si>
-  <si>
-    <t>10 câu So sánh, 5 câu từ vựng</t>
-  </si>
-  <si>
-    <t>10 câu Đại từ, 5 câu từ vựng</t>
-  </si>
-  <si>
-    <t>10 câu Động từ, 10 câu từ vựng</t>
-  </si>
-  <si>
-    <t>10 câu Chủ động &amp; Bị động, 10 câu từ vựng</t>
-  </si>
-  <si>
-    <t>10 câu Động từ nguyên mẫu có To, 10 câu từ vựng, 6 câu Part 6</t>
-  </si>
-  <si>
-    <t>10 câu Danh động từ, 10 câu từ vựng, 6 câu Part 6</t>
-  </si>
-  <si>
-    <t>10 câu Phân từ, 10 câu từ vựng, 6 câu Part 6</t>
-  </si>
-  <si>
-    <t>10 câu Mệnh đề trạng ngữ, 10 câu từ vựng, 6 câu Part 6</t>
-  </si>
-  <si>
     <t>So sánh + Giới từ &amp; Liên từ</t>
   </si>
   <si>
@@ -938,9 +874,6 @@
   </si>
   <si>
     <t>Part 1.1: Tranh có người</t>
-  </si>
-  <si>
-    <t>Part 1.3: Tranh có đồ vật / phong cảnh</t>
   </si>
   <si>
     <t>Luyện tập Part 1</t>
@@ -1076,23 +1009,96 @@
   <si>
     <t>Luyện tập Part 3</t>
   </si>
+  <si>
+    <t>Part 1.2: Tranh có đồ vật / phong cảnh</t>
+  </si>
+  <si>
+    <t>Giải đề</t>
+  </si>
+  <si>
+    <t>Not Recommended</t>
+  </si>
+  <si>
+    <t>Nâng cao</t>
+  </si>
+  <si>
+    <t>Cơ bản</t>
+  </si>
+  <si>
+    <t>900+</t>
+  </si>
+  <si>
+    <t>750+</t>
+  </si>
+  <si>
+    <t>600+</t>
+  </si>
+  <si>
+    <t>450+</t>
+  </si>
+  <si>
+    <t>BẢNG GIÁ DẠY TOEIC (tính theo buổi từ 1,5 - 2 tiếng)</t>
+  </si>
+  <si>
+    <t>Số buổi</t>
+  </si>
+  <si>
+    <t>750+, học từ cơ bản đến nâng cao, nhưng thầy sẽ giúp em chinh phục được</t>
+  </si>
+  <si>
+    <t>Mục tiêu</t>
+  </si>
+  <si>
+    <t>Học phí</t>
+  </si>
+  <si>
+    <t>Lịch học</t>
+  </si>
+  <si>
+    <t>SĐT</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thúy</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>Học tại nhà thầy,
+442 Hoàng Văn Thái rồi gọi thầy ra đón</t>
+  </si>
+  <si>
+    <t>Tuần đầu: T4 18h30, T7 15h00
+Từ tuần thứ 2 có thể thay đổi</t>
+  </si>
+  <si>
+    <t>0983 751 463</t>
+  </si>
+  <si>
+    <t>4.320.000
+Giảm 50% vì là người thầy thương
+(sau khi thi thật mới tính chuyện trả học phí)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -1100,7 +1106,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -1108,53 +1114,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -1163,7 +1131,45 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -1172,15 +1178,30 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1375,126 +1396,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1508,7 +1415,63 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -1530,14 +1493,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1547,7 +1512,20 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -1559,10 +1537,34 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1572,8 +1574,51 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -1586,10 +1631,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1608,14 +1653,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1634,7 +1679,63 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1645,21 +1746,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1668,95 +1758,28 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1771,8 +1794,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1796,7 +1819,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1888,157 +1911,169 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="5" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="2" borderId="21" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="20" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2063,136 +2098,146 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="20" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{04270A36-8093-4D03-9672-EC95322B6873}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 5" xfId="4" xr:uid="{9A209EDF-0646-462F-BEEB-4389EB2F7917}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2210,6 +2255,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2258,7 +2306,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2291,9 +2339,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2326,6 +2391,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2501,28 +2583,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="42.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
-        <v>306</v>
-      </c>
-      <c r="B1" s="113"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="119" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="119"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>6</v>
       </c>
@@ -2535,7 +2617,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2543,7 +2625,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2551,7 +2633,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2591,7 +2673,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2599,7 +2681,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2623,7 +2705,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2631,7 +2713,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2639,7 +2721,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2647,15 +2729,15 @@
         <v>15</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="50">
         <v>16</v>
       </c>
-      <c r="B18" s="162" t="s">
-        <v>16</v>
+      <c r="B18" s="68" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2668,44 +2750,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="91" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
-        <v>307</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="57" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="120" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -2713,13 +2790,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -2727,13 +2801,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -2741,27 +2812,21 @@
         <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -2769,13 +2834,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -2783,13 +2845,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -2797,27 +2856,21 @@
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -2825,13 +2878,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -2839,191 +2889,178 @@
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="83" t="s">
-        <v>21</v>
+      <c r="B15" s="52" t="s">
+        <v>19</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="83" t="s">
-        <v>21</v>
+      <c r="B18" s="52" t="s">
+        <v>19</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="85"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="85"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="85"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="85"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="85"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="85"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="89"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="85"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="85"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="85"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="85"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="85"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="85"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="88"/>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="85"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="88"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="85"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="88"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="85"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="85"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="69"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="71"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="55"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="55"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="55"/>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="55"/>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="55"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="55"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="55"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="55"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="55"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="55"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="56"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="56"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="53"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="56"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="53"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="55"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="53"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="55"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="72"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="56"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="72"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="56"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="72"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="56"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="73"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3031,993 +3068,993 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.75" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="9"/>
-    <col min="6" max="6" width="32.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E1" s="44"/>
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
     </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="118" t="s">
-        <v>234</v>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="124" t="s">
+        <v>229</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E2" s="44"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="119"/>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="125"/>
       <c r="B3" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E3" s="44"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="119"/>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="125"/>
       <c r="B4" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E4" s="44"/>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="119"/>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="125"/>
       <c r="B5" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E5" s="44"/>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="119"/>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="125"/>
       <c r="B6" s="12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E6" s="44"/>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="119"/>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="125"/>
       <c r="B7" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E7" s="44"/>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="119"/>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="125"/>
       <c r="B8" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E8" s="44"/>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="119"/>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="125"/>
       <c r="B9" s="12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E9" s="44"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="119"/>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="125"/>
       <c r="B10" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E10" s="44"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="119"/>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="125"/>
       <c r="B11" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E11" s="44"/>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="119"/>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="125"/>
       <c r="B12" s="12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E12" s="44"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="120"/>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="126"/>
       <c r="B13" s="11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E13" s="44"/>
       <c r="F13" s="44"/>
       <c r="G13" s="44"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="118" t="s">
-        <v>235</v>
+      <c r="A14" s="124" t="s">
+        <v>230</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E14" s="44"/>
       <c r="F14" s="44"/>
       <c r="G14" s="44"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="119"/>
+      <c r="A15" s="125"/>
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E15" s="44"/>
       <c r="F15" s="44"/>
       <c r="G15" s="44"/>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="119"/>
+      <c r="A16" s="125"/>
       <c r="B16" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E16" s="44"/>
       <c r="F16" s="44"/>
       <c r="G16" s="44"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="119"/>
+      <c r="A17" s="125"/>
       <c r="B17" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E17" s="44"/>
       <c r="F17" s="44"/>
       <c r="G17" s="44"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="119"/>
+      <c r="A18" s="125"/>
       <c r="B18" s="12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E18" s="44"/>
       <c r="F18" s="44"/>
       <c r="G18" s="44"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="119"/>
+      <c r="A19" s="125"/>
       <c r="B19" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E19" s="44"/>
       <c r="F19" s="44"/>
       <c r="G19" s="44"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="119"/>
+      <c r="A20" s="125"/>
       <c r="B20" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E20" s="44"/>
       <c r="F20" s="44"/>
       <c r="G20" s="44"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="119"/>
+      <c r="A21" s="125"/>
       <c r="B21" s="12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E21" s="44"/>
       <c r="F21" s="44"/>
       <c r="G21" s="44"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="119"/>
+      <c r="A22" s="125"/>
       <c r="B22" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E22" s="44"/>
       <c r="F22" s="44"/>
       <c r="G22" s="44"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="119"/>
+      <c r="A23" s="125"/>
       <c r="B23" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E23" s="44"/>
       <c r="F23" s="44"/>
       <c r="G23" s="44"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="119"/>
+      <c r="A24" s="125"/>
       <c r="B24" s="11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E24" s="44"/>
       <c r="F24" s="44"/>
       <c r="G24" s="44"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="118" t="s">
-        <v>236</v>
+      <c r="A25" s="124" t="s">
+        <v>231</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E25" s="44"/>
       <c r="F25" s="44"/>
       <c r="G25" s="44"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="119"/>
+      <c r="A26" s="125"/>
       <c r="B26" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E26" s="44"/>
       <c r="F26" s="44"/>
       <c r="G26" s="44"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="119"/>
+      <c r="A27" s="125"/>
       <c r="B27" s="14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E27" s="44"/>
       <c r="F27" s="44"/>
       <c r="G27" s="44"/>
     </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="119"/>
+      <c r="A28" s="125"/>
       <c r="B28" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E28" s="44"/>
       <c r="F28" s="44"/>
       <c r="G28" s="44"/>
     </row>
     <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="119"/>
+      <c r="A29" s="125"/>
       <c r="B29" s="14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E29" s="44"/>
       <c r="F29" s="44"/>
       <c r="G29" s="44"/>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="119"/>
+      <c r="A30" s="125"/>
       <c r="B30" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="D30" s="25" t="s">
         <v>115</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>120</v>
       </c>
       <c r="E30" s="44"/>
       <c r="F30" s="44"/>
       <c r="G30" s="44"/>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="119"/>
+      <c r="A31" s="125"/>
       <c r="B31" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E31" s="44"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="119"/>
+      <c r="A32" s="125"/>
       <c r="B32" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E32" s="44"/>
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
     </row>
     <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="119"/>
+      <c r="A33" s="125"/>
       <c r="B33" s="14" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E33" s="44"/>
       <c r="F33" s="44"/>
       <c r="G33" s="44"/>
     </row>
     <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="119"/>
+      <c r="A34" s="125"/>
       <c r="B34" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E34" s="44"/>
       <c r="F34" s="44"/>
       <c r="G34" s="44"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="118" t="s">
-        <v>237</v>
+      <c r="A35" s="124" t="s">
+        <v>232</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E35" s="44"/>
       <c r="F35" s="44"/>
       <c r="G35" s="44"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="119"/>
+      <c r="A36" s="125"/>
       <c r="B36" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E36" s="44"/>
       <c r="F36" s="44"/>
       <c r="G36" s="44"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="119"/>
+      <c r="A37" s="125"/>
       <c r="B37" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E37" s="44"/>
       <c r="F37" s="44"/>
       <c r="G37" s="44"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="119"/>
+      <c r="A38" s="125"/>
       <c r="B38" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E38" s="44"/>
       <c r="F38" s="44"/>
       <c r="G38" s="44"/>
     </row>
     <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="119"/>
+      <c r="A39" s="125"/>
       <c r="B39" s="12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E39" s="44"/>
       <c r="F39" s="44"/>
       <c r="G39" s="44"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="119"/>
+      <c r="A40" s="125"/>
       <c r="B40" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E40" s="44"/>
       <c r="F40" s="44"/>
       <c r="G40" s="44"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="119"/>
+      <c r="A41" s="125"/>
       <c r="B41" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E41" s="44"/>
       <c r="F41" s="44"/>
       <c r="G41" s="44"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="119"/>
+      <c r="A42" s="125"/>
       <c r="B42" s="12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E42" s="44"/>
       <c r="F42" s="44"/>
       <c r="G42" s="44"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="119"/>
+      <c r="A43" s="125"/>
       <c r="B43" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E43" s="44"/>
       <c r="F43" s="44"/>
       <c r="G43" s="44"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="119"/>
+      <c r="A44" s="125"/>
       <c r="B44" s="11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E44" s="44"/>
       <c r="F44" s="44"/>
       <c r="G44" s="44"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="118" t="s">
-        <v>238</v>
+      <c r="A45" s="124" t="s">
+        <v>233</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E45" s="44"/>
       <c r="F45" s="44"/>
       <c r="G45" s="44"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="119"/>
+      <c r="A46" s="125"/>
       <c r="B46" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C46" s="46" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
       <c r="G46" s="44"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="119"/>
+      <c r="A47" s="125"/>
       <c r="B47" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C47" s="46" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E47" s="44"/>
       <c r="F47" s="44"/>
       <c r="G47" s="44"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="119"/>
+      <c r="A48" s="125"/>
       <c r="B48" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C48" s="46" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E48" s="44"/>
       <c r="F48" s="44"/>
       <c r="G48" s="44"/>
     </row>
     <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="119"/>
+      <c r="A49" s="125"/>
       <c r="B49" s="12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C49" s="46" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E49" s="44"/>
       <c r="F49" s="44"/>
       <c r="G49" s="44"/>
     </row>
     <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="119"/>
+      <c r="A50" s="125"/>
       <c r="B50" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C50" s="46" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E50" s="44"/>
       <c r="F50" s="44"/>
       <c r="G50" s="44"/>
     </row>
     <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="119"/>
+      <c r="A51" s="125"/>
       <c r="B51" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C51" s="46" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E51" s="44"/>
       <c r="F51" s="44"/>
       <c r="G51" s="44"/>
     </row>
     <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="119"/>
+      <c r="A52" s="125"/>
       <c r="B52" s="12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C52" s="46" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E52" s="44"/>
       <c r="F52" s="44"/>
       <c r="G52" s="44"/>
     </row>
     <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="119"/>
+      <c r="A53" s="125"/>
       <c r="B53" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C53" s="46" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E53" s="44"/>
       <c r="F53" s="44"/>
       <c r="G53" s="44"/>
     </row>
     <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="119"/>
+      <c r="A54" s="125"/>
       <c r="B54" s="11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C54" s="46" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E54" s="44"/>
       <c r="F54" s="44"/>
       <c r="G54" s="44"/>
     </row>
-    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="115" t="s">
-        <v>215</v>
+    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="121" t="s">
+        <v>210</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E55" s="44"/>
       <c r="F55" s="44"/>
       <c r="G55" s="44"/>
     </row>
-    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="116"/>
+    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="122"/>
       <c r="B56" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E56" s="44"/>
       <c r="F56" s="44"/>
       <c r="G56" s="44"/>
     </row>
-    <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="116"/>
+    <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="122"/>
       <c r="B57" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E57" s="44"/>
       <c r="F57" s="44"/>
       <c r="G57" s="44"/>
     </row>
-    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="116"/>
+    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="122"/>
       <c r="B58" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E58" s="44"/>
       <c r="F58" s="44"/>
       <c r="G58" s="44"/>
     </row>
-    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="116"/>
+    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="122"/>
       <c r="B59" s="12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C59" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>139</v>
       </c>
       <c r="E59" s="44"/>
       <c r="F59" s="44"/>
       <c r="G59" s="44"/>
     </row>
-    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="116"/>
+    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="122"/>
       <c r="B60" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C60" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>140</v>
       </c>
       <c r="E60" s="44"/>
       <c r="F60" s="44"/>
       <c r="G60" s="44"/>
     </row>
-    <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="116"/>
+    <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="122"/>
       <c r="B61" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C61" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>141</v>
       </c>
       <c r="E61" s="44"/>
       <c r="F61" s="44"/>
       <c r="G61" s="44"/>
     </row>
-    <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="116"/>
+    <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="122"/>
       <c r="B62" s="12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E62" s="44"/>
       <c r="F62" s="44"/>
       <c r="G62" s="44"/>
     </row>
-    <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="116"/>
+    <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="122"/>
       <c r="B63" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E63" s="44"/>
       <c r="F63" s="44"/>
       <c r="G63" s="44"/>
     </row>
-    <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="117"/>
+    <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="123"/>
       <c r="B64" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E64" s="44">
         <v>33</v>
@@ -4025,153 +4062,153 @@
       <c r="F64" s="44"/>
       <c r="G64" s="44"/>
     </row>
-    <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="118" t="s">
-        <v>213</v>
+    <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="124" t="s">
+        <v>208</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E65" s="44"/>
       <c r="F65" s="44"/>
       <c r="G65" s="44"/>
     </row>
-    <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="119"/>
+    <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="125"/>
       <c r="B66" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C66" s="34" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E66" s="44"/>
       <c r="F66" s="44"/>
       <c r="G66" s="44"/>
     </row>
-    <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="119"/>
+    <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="125"/>
       <c r="B67" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E67" s="44"/>
       <c r="F67" s="44"/>
       <c r="G67" s="44"/>
     </row>
-    <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="119"/>
+    <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="125"/>
       <c r="B68" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C68" s="34" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E68" s="44"/>
       <c r="F68" s="44"/>
       <c r="G68" s="44"/>
     </row>
-    <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="119"/>
+    <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="125"/>
       <c r="B69" s="12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C69" s="34" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E69" s="44"/>
       <c r="F69" s="44"/>
       <c r="G69" s="44"/>
     </row>
-    <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="119"/>
+    <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="125"/>
       <c r="B70" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C70" s="34" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E70" s="44"/>
       <c r="F70" s="44"/>
       <c r="G70" s="44"/>
     </row>
-    <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="119"/>
+    <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="125"/>
       <c r="B71" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E71" s="44"/>
       <c r="F71" s="44"/>
       <c r="G71" s="44"/>
     </row>
-    <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="119"/>
+    <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="125"/>
       <c r="B72" s="12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C72" s="39" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E72" s="44"/>
       <c r="F72" s="44"/>
       <c r="G72" s="44"/>
     </row>
-    <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="116"/>
+    <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="122"/>
       <c r="B73" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E73" s="44"/>
       <c r="F73" s="44"/>
       <c r="G73" s="44"/>
     </row>
-    <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="120"/>
+    <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="126"/>
       <c r="B74" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C74" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D74" s="11" t="s">
         <v>146</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>151</v>
       </c>
       <c r="E74" s="44">
         <v>25</v>
@@ -4179,153 +4216,153 @@
       <c r="F74" s="44"/>
       <c r="G74" s="44"/>
     </row>
-    <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="118" t="s">
-        <v>214</v>
+    <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="124" t="s">
+        <v>209</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E75" s="44"/>
       <c r="F75" s="44"/>
       <c r="G75" s="44"/>
     </row>
-    <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="119"/>
+    <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="125"/>
       <c r="B76" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E76" s="44"/>
       <c r="F76" s="44"/>
       <c r="G76" s="44"/>
     </row>
-    <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="119"/>
+    <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="125"/>
       <c r="B77" s="14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E77" s="44"/>
       <c r="F77" s="44"/>
       <c r="G77" s="44"/>
     </row>
-    <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="119"/>
+    <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="125"/>
       <c r="B78" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C78" s="39" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E78" s="44"/>
       <c r="F78" s="44"/>
       <c r="G78" s="44"/>
     </row>
-    <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="119"/>
+    <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="125"/>
       <c r="B79" s="14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E79" s="44"/>
       <c r="F79" s="44"/>
       <c r="G79" s="44"/>
     </row>
-    <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="119"/>
+    <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="125"/>
       <c r="B80" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C80" s="30" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E80" s="44"/>
       <c r="F80" s="44"/>
       <c r="G80" s="44"/>
     </row>
-    <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="119"/>
+    <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="125"/>
       <c r="B81" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E81" s="44"/>
       <c r="F81" s="44"/>
       <c r="G81" s="44"/>
     </row>
-    <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="119"/>
+    <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="125"/>
       <c r="B82" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E82" s="44"/>
       <c r="F82" s="44"/>
       <c r="G82" s="44"/>
     </row>
-    <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="119"/>
+    <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="125"/>
       <c r="B83" s="14" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C83" s="30" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E83" s="44"/>
       <c r="F83" s="44"/>
       <c r="G83" s="44"/>
     </row>
-    <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="120"/>
+    <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="126"/>
       <c r="B84" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C84" s="41" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E84" s="44">
         <v>30</v>
@@ -4333,153 +4370,153 @@
       <c r="F84" s="44"/>
       <c r="G84" s="44"/>
     </row>
-    <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="118" t="s">
-        <v>216</v>
+    <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="124" t="s">
+        <v>211</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E85" s="44"/>
       <c r="F85" s="44"/>
       <c r="G85" s="44"/>
     </row>
-    <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="119"/>
+    <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="125"/>
       <c r="B86" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C86" s="30" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E86" s="44"/>
       <c r="F86" s="44"/>
       <c r="G86" s="44"/>
     </row>
-    <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="119"/>
+    <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="125"/>
       <c r="B87" s="14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C87" s="30" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E87" s="44"/>
       <c r="F87" s="44"/>
       <c r="G87" s="44"/>
     </row>
-    <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="119"/>
+    <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="125"/>
       <c r="B88" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C88" s="39" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E88" s="44"/>
       <c r="F88" s="44"/>
       <c r="G88" s="44"/>
     </row>
-    <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="119"/>
+    <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="125"/>
       <c r="B89" s="14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C89" s="30" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E89" s="44"/>
       <c r="F89" s="44"/>
       <c r="G89" s="44"/>
     </row>
-    <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="119"/>
+    <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="125"/>
       <c r="B90" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C90" s="30" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E90" s="44"/>
       <c r="F90" s="44"/>
       <c r="G90" s="44"/>
     </row>
-    <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="119"/>
+    <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="125"/>
       <c r="B91" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C91" s="39" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E91" s="44"/>
       <c r="F91" s="44"/>
       <c r="G91" s="44"/>
     </row>
-    <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="119"/>
+    <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="125"/>
       <c r="B92" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C92" s="39" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E92" s="44"/>
       <c r="F92" s="44"/>
       <c r="G92" s="44"/>
     </row>
-    <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="119"/>
+    <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="125"/>
       <c r="B93" s="14" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E93" s="44"/>
       <c r="F93" s="44"/>
       <c r="G93" s="44"/>
     </row>
-    <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="120"/>
+    <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="126"/>
       <c r="B94" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E94" s="44">
         <v>36</v>
@@ -4487,123 +4524,123 @@
       <c r="F94" s="44"/>
       <c r="G94" s="44"/>
     </row>
-    <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="118" t="s">
-        <v>217</v>
+    <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="124" t="s">
+        <v>212</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C95" s="33" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E95" s="44"/>
       <c r="F95" s="44"/>
       <c r="G95" s="44"/>
     </row>
-    <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="119"/>
+    <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="125"/>
       <c r="B96" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C96" s="34" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E96" s="44"/>
       <c r="F96" s="44"/>
       <c r="G96" s="44"/>
     </row>
-    <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="119"/>
+    <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="125"/>
       <c r="B97" s="14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E97" s="44"/>
       <c r="F97" s="44"/>
       <c r="G97" s="44"/>
     </row>
-    <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="119"/>
+    <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="125"/>
       <c r="B98" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E98" s="44"/>
       <c r="F98" s="44"/>
       <c r="G98" s="44"/>
     </row>
-    <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="119"/>
+    <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="125"/>
       <c r="B99" s="14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C99" s="34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E99" s="44"/>
       <c r="F99" s="44"/>
       <c r="G99" s="44"/>
     </row>
-    <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="119"/>
+    <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="125"/>
       <c r="B100" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C100" s="42" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E100" s="44"/>
       <c r="F100" s="44"/>
       <c r="G100" s="44"/>
     </row>
-    <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="119"/>
+    <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="125"/>
       <c r="B101" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C101" s="42" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E101" s="44"/>
       <c r="F101" s="44"/>
       <c r="G101" s="44"/>
     </row>
-    <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="119"/>
+    <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="125"/>
       <c r="B102" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E102" s="44">
         <v>26</v>
@@ -4611,123 +4648,123 @@
       <c r="F102" s="44"/>
       <c r="G102" s="44"/>
     </row>
-    <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="115" t="s">
-        <v>218</v>
+    <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="121" t="s">
+        <v>213</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C103" s="33" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E103" s="44"/>
       <c r="F103" s="44"/>
       <c r="G103" s="44"/>
     </row>
-    <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="116"/>
+    <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="122"/>
       <c r="B104" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C104" s="42" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E104" s="44"/>
       <c r="F104" s="44"/>
       <c r="G104" s="44"/>
     </row>
-    <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="116"/>
+    <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="122"/>
       <c r="B105" s="14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C105" s="34" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E105" s="44"/>
       <c r="F105" s="44"/>
       <c r="G105" s="44"/>
     </row>
-    <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="116"/>
+    <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="122"/>
       <c r="B106" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C106" s="34" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E106" s="44"/>
       <c r="F106" s="44"/>
       <c r="G106" s="44"/>
     </row>
-    <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="116"/>
+    <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="122"/>
       <c r="B107" s="14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C107" s="42" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E107" s="44"/>
       <c r="F107" s="44"/>
       <c r="G107" s="44"/>
     </row>
-    <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="116"/>
+    <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="122"/>
       <c r="B108" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C108" s="34" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E108" s="44"/>
       <c r="F108" s="23"/>
       <c r="G108" s="23"/>
     </row>
-    <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="116"/>
+    <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="122"/>
       <c r="B109" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C109" s="34" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E109" s="44"/>
       <c r="F109" s="23"/>
       <c r="G109" s="23"/>
     </row>
-    <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="117"/>
+    <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="123"/>
       <c r="B110" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C110" s="43" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E110" s="44">
         <v>23</v>
@@ -4735,123 +4772,123 @@
       <c r="F110" s="44"/>
       <c r="G110" s="44"/>
     </row>
-    <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="115" t="s">
-        <v>219</v>
+    <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="121" t="s">
+        <v>214</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C111" s="40" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E111" s="44"/>
       <c r="F111" s="44"/>
       <c r="G111" s="44"/>
     </row>
-    <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="116"/>
+    <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="122"/>
       <c r="B112" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C112" s="30" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E112" s="44"/>
       <c r="F112" s="44"/>
       <c r="G112" s="44"/>
     </row>
-    <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="116"/>
+    <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="122"/>
       <c r="B113" s="14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C113" s="39" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E113" s="44"/>
       <c r="F113" s="44"/>
       <c r="G113" s="44"/>
     </row>
-    <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="116"/>
+    <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="122"/>
       <c r="B114" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C114" s="39" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E114" s="44"/>
       <c r="F114" s="44"/>
       <c r="G114" s="44"/>
     </row>
-    <row r="115" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="116"/>
+    <row r="115" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="122"/>
       <c r="B115" s="14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C115" s="39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E115" s="44"/>
       <c r="F115" s="44"/>
       <c r="G115" s="44"/>
     </row>
-    <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="116"/>
+    <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="122"/>
       <c r="B116" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C116" s="39" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E116" s="44"/>
       <c r="F116" s="44"/>
       <c r="G116" s="44"/>
     </row>
-    <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="116"/>
+    <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="122"/>
       <c r="B117" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C117" s="39" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E117" s="44"/>
       <c r="F117" s="44"/>
       <c r="G117" s="44"/>
     </row>
-    <row r="118" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="116"/>
+    <row r="118" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="122"/>
       <c r="B118" s="16" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C118" s="41" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D118" s="26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E118" s="44">
         <v>29</v>
@@ -4859,396 +4896,396 @@
       <c r="F118" s="44"/>
       <c r="G118" s="44"/>
     </row>
-    <row r="119" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="118" t="s">
-        <v>220</v>
+    <row r="119" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="124" t="s">
+        <v>215</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C119" s="29" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E119" s="44"/>
       <c r="F119" s="44"/>
       <c r="G119" s="44"/>
     </row>
-    <row r="120" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="119"/>
+    <row r="120" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="125"/>
       <c r="B120" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C120" s="30" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E120" s="44"/>
       <c r="F120" s="44"/>
       <c r="G120" s="44"/>
     </row>
-    <row r="121" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="119"/>
+    <row r="121" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="125"/>
       <c r="B121" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C121" s="39" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E121" s="44"/>
       <c r="F121" s="44"/>
       <c r="G121" s="44"/>
     </row>
-    <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="119"/>
+    <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="125"/>
       <c r="B122" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C122" s="39" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E122" s="44"/>
       <c r="F122" s="44"/>
       <c r="G122" s="44"/>
     </row>
-    <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="119"/>
+    <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="125"/>
       <c r="B123" s="11" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C123" s="41" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E123" s="44"/>
       <c r="F123" s="44"/>
       <c r="G123" s="44"/>
     </row>
-    <row r="124" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="118" t="s">
-        <v>221</v>
+    <row r="124" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="124" t="s">
+        <v>216</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E124" s="44"/>
       <c r="F124" s="44"/>
       <c r="G124" s="44"/>
     </row>
-    <row r="125" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="119"/>
+    <row r="125" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A125" s="125"/>
       <c r="B125" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C125" s="28" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E125" s="44"/>
       <c r="F125" s="44"/>
       <c r="G125" s="44"/>
     </row>
-    <row r="126" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="119"/>
+    <row r="126" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="125"/>
       <c r="B126" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C126" s="32" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E126" s="44"/>
       <c r="F126" s="44"/>
       <c r="G126" s="44"/>
     </row>
-    <row r="127" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="119"/>
+    <row r="127" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="125"/>
       <c r="B127" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C127" s="32" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E127" s="44"/>
       <c r="F127" s="44"/>
       <c r="G127" s="44"/>
     </row>
-    <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="120"/>
+    <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="126"/>
       <c r="B128" s="11" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C128" s="39" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E128" s="44"/>
       <c r="F128" s="44"/>
       <c r="G128" s="44"/>
     </row>
-    <row r="129" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="118" t="s">
-        <v>222</v>
+    <row r="129" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="124" t="s">
+        <v>217</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C129" s="40" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E129" s="44"/>
       <c r="F129" s="44"/>
       <c r="G129" s="44"/>
     </row>
-    <row r="130" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="119"/>
+    <row r="130" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="125"/>
       <c r="B130" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C130" s="30" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E130" s="44"/>
       <c r="F130" s="44"/>
       <c r="G130" s="44"/>
     </row>
-    <row r="131" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="119"/>
+    <row r="131" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="125"/>
       <c r="B131" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C131" s="30" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E131" s="44"/>
       <c r="F131" s="44"/>
       <c r="G131" s="44"/>
     </row>
-    <row r="132" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="119"/>
+    <row r="132" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="125"/>
       <c r="B132" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C132" s="30" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E132" s="44"/>
       <c r="F132" s="44"/>
       <c r="G132" s="44"/>
     </row>
-    <row r="133" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A133" s="120"/>
+    <row r="133" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="126"/>
       <c r="B133" s="11" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C133" s="39" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E133" s="44"/>
       <c r="F133" s="44"/>
       <c r="G133" s="44"/>
     </row>
-    <row r="134" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A134" s="118" t="s">
-        <v>223</v>
+    <row r="134" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="124" t="s">
+        <v>218</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C134" s="33" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E134" s="44"/>
       <c r="F134" s="44"/>
       <c r="G134" s="44"/>
     </row>
-    <row r="135" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="119"/>
+    <row r="135" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="125"/>
       <c r="B135" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C135" s="42" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E135" s="44"/>
       <c r="F135" s="44"/>
       <c r="G135" s="44"/>
     </row>
-    <row r="136" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A136" s="119"/>
+    <row r="136" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="125"/>
       <c r="B136" s="14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C136" s="42" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E136" s="44"/>
       <c r="F136" s="44"/>
       <c r="G136" s="44"/>
     </row>
-    <row r="137" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A137" s="119"/>
+    <row r="137" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="125"/>
       <c r="B137" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C137" s="34" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E137" s="44"/>
       <c r="F137" s="44"/>
       <c r="G137" s="44"/>
     </row>
-    <row r="138" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A138" s="120"/>
+    <row r="138" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="126"/>
       <c r="B138" s="16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C138" s="45" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E138" s="44"/>
       <c r="F138" s="44"/>
       <c r="G138" s="44"/>
     </row>
-    <row r="139" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A139" s="118" t="s">
-        <v>224</v>
+    <row r="139" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="124" t="s">
+        <v>219</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C139" s="40" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E139" s="44"/>
       <c r="F139" s="44"/>
       <c r="G139" s="44"/>
     </row>
-    <row r="140" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A140" s="119"/>
+    <row r="140" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="125"/>
       <c r="B140" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C140" s="39" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E140" s="44"/>
       <c r="F140" s="44"/>
       <c r="G140" s="44"/>
     </row>
-    <row r="141" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A141" s="119"/>
+    <row r="141" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="125"/>
       <c r="B141" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C141" s="39" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E141" s="44"/>
       <c r="F141" s="44"/>
       <c r="G141" s="44"/>
     </row>
-    <row r="142" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A142" s="119"/>
+    <row r="142" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="125"/>
       <c r="B142" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C142" s="30" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E142" s="44"/>
       <c r="F142" s="44"/>
       <c r="G142" s="44"/>
     </row>
-    <row r="143" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A143" s="120"/>
+    <row r="143" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="126"/>
       <c r="B143" s="11" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C143" s="41" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E143" s="44"/>
       <c r="F143" s="44"/>
       <c r="G143" s="44"/>
     </row>
-    <row r="145" spans="3:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C145" s="17"/>
       <c r="D145" s="19"/>
     </row>
-    <row r="146" spans="3:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C146" s="17"/>
       <c r="D146" s="19"/>
     </row>
@@ -5278,636 +5315,925 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="9" style="58"/>
+    <col min="11" max="11" width="9.85546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="67" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>309</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="I1" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="J1" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="K1" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="L1" s="62" t="s">
+        <v>302</v>
+      </c>
+      <c r="M1" s="62" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" s="58">
+        <v>12</v>
+      </c>
+      <c r="C2" s="58">
+        <v>10</v>
+      </c>
+      <c r="D2" s="58">
+        <v>14</v>
+      </c>
+      <c r="E2" s="58">
+        <v>8</v>
+      </c>
+      <c r="F2" s="58">
+        <v>11</v>
+      </c>
+      <c r="G2" s="58">
+        <v>12</v>
+      </c>
+      <c r="I2" s="58">
+        <v>17</v>
+      </c>
+      <c r="J2" s="58">
+        <v>4</v>
+      </c>
+      <c r="K2" s="58">
+        <v>18</v>
+      </c>
+      <c r="L2" s="58">
+        <v>16</v>
+      </c>
+      <c r="M2" s="58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="58">
+        <v>10</v>
+      </c>
+      <c r="C3" s="58">
+        <v>10</v>
+      </c>
+      <c r="D3" s="58">
+        <v>10</v>
+      </c>
+      <c r="E3" s="58">
+        <v>6</v>
+      </c>
+      <c r="F3" s="58">
+        <v>13</v>
+      </c>
+      <c r="G3" s="58">
+        <v>13</v>
+      </c>
+      <c r="I3" s="58">
+        <v>12</v>
+      </c>
+      <c r="J3" s="58">
+        <v>4</v>
+      </c>
+      <c r="K3" s="58">
+        <v>11</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="M3" s="58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>295</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>293</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>291</v>
+      </c>
+      <c r="K4" s="59" t="s">
+        <v>290</v>
+      </c>
+      <c r="M4" s="59" t="s">
+        <v>289</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA5DB01-C41B-4FD6-8D04-CF0BFAB48CC6}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="75"/>
+    <col min="4" max="5" width="18.42578125" style="75" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="75"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="128" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="80"/>
+      <c r="B2" s="79" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>320</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="77" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="76">
+        <v>120000</v>
+      </c>
+      <c r="C3" s="76">
+        <v>130000</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" s="127" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="77" t="s">
+        <v>317</v>
+      </c>
+      <c r="B4" s="127" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4" s="76">
+        <v>140000</v>
+      </c>
+      <c r="D4" s="76">
+        <v>150000</v>
+      </c>
+      <c r="E4" s="127"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="77" t="s">
+        <v>315</v>
+      </c>
+      <c r="B5" s="127"/>
+      <c r="C5" s="76">
+        <v>150000</v>
+      </c>
+      <c r="D5" s="76">
+        <v>165000</v>
+      </c>
+      <c r="E5" s="76">
+        <v>180000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EFCC8B-8BE2-4800-8810-574859A2CECD}">
   <dimension ref="B1:N42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.625" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="92" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="92" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="8.625" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="8.625" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="8.625" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
-    <col min="12" max="12" width="8.625" customWidth="1"/>
-    <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="81"/>
+    <col min="2" max="2" width="8.5703125" style="81" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" style="82" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="81" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="81" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="81" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="81" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="81" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="81" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="81" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="81" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="81" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="81" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="151"/>
-    </row>
-    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="132"/>
-    </row>
-    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="59" t="s">
-        <v>280</v>
-      </c>
-      <c r="C4" s="129"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="148"/>
-    </row>
-    <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="149" t="s">
-        <v>281</v>
-      </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="153"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="132"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="149"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="153"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="132"/>
-    </row>
-    <row r="7" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="59" t="s">
-        <v>282</v>
-      </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="131"/>
-      <c r="L7" s="132"/>
-    </row>
-    <row r="8" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C8" s="121"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="124"/>
-    </row>
-    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="77" t="s">
+      <c r="B2" s="117" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" s="147" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2" s="148"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="131"/>
+    </row>
+    <row r="3" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="118" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" s="136" t="s">
+        <v>333</v>
+      </c>
+      <c r="D3" s="137"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="133"/>
+    </row>
+    <row r="4" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="118" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" s="157" t="s">
+        <v>335</v>
+      </c>
+      <c r="D4" s="158"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="135"/>
+    </row>
+    <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="129" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" s="136" t="s">
+        <v>334</v>
+      </c>
+      <c r="D5" s="137"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="133"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="129"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="133"/>
+    </row>
+    <row r="7" spans="2:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="118" t="s">
+        <v>327</v>
+      </c>
+      <c r="C7" s="136" t="s">
+        <v>336</v>
+      </c>
+      <c r="D7" s="137"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="133"/>
+    </row>
+    <row r="8" spans="2:12" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="116" t="s">
+        <v>326</v>
+      </c>
+      <c r="C8" s="165" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8" s="166"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="167"/>
+      <c r="L8" s="168"/>
+    </row>
+    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="115" t="s">
+        <v>324</v>
+      </c>
+      <c r="C10" s="114"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="110"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="109">
+        <v>1</v>
+      </c>
+      <c r="C11" s="108"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="103"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="96">
+        <v>2</v>
+      </c>
+      <c r="C12" s="101"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="90"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="96">
+        <v>3</v>
+      </c>
+      <c r="C13" s="101"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="90"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="96">
+        <v>4</v>
+      </c>
+      <c r="C14" s="101"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="90"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="96">
+        <v>5</v>
+      </c>
+      <c r="C15" s="101"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="90"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="96">
+        <v>6</v>
+      </c>
+      <c r="C16" s="95"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="90"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="96">
         <v>7</v>
       </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="79"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="72">
-        <v>1</v>
-      </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="75"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="61">
-        <v>2</v>
-      </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="53"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="61">
-        <v>3</v>
-      </c>
-      <c r="C13" s="97"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="53"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="61">
-        <v>4</v>
-      </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="53"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="61">
-        <v>5</v>
-      </c>
-      <c r="C15" s="97"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="53"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="61">
-        <v>6</v>
-      </c>
-      <c r="C16" s="100"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="53"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="61">
-        <v>7</v>
-      </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="53"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="61">
+      <c r="C17" s="95"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="90"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="96">
         <v>8</v>
       </c>
-      <c r="C18" s="100"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="53"/>
-      <c r="N18" s="81"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="61">
+      <c r="C18" s="95"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="90"/>
+      <c r="N18" s="97"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="96">
         <v>9</v>
       </c>
-      <c r="C19" s="100"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="53"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="61">
+      <c r="C19" s="95"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="90"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="96">
         <v>10</v>
       </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="53"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B21" s="61">
+      <c r="C20" s="95"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="90"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="96">
         <v>11</v>
       </c>
-      <c r="C21" s="100"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="53"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="61">
+      <c r="C21" s="95"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="90"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="96">
         <v>12</v>
       </c>
-      <c r="C22" s="100"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="53"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="61">
+      <c r="C22" s="95"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="90"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="96">
         <v>13</v>
       </c>
-      <c r="C23" s="100"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="53"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="61">
+      <c r="C23" s="95"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="90"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="96">
         <v>14</v>
       </c>
-      <c r="C24" s="100"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="53"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="61">
+      <c r="C24" s="95"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="90"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="96">
         <v>15</v>
       </c>
-      <c r="C25" s="100"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="53"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="61">
+      <c r="C25" s="95"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="90"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="96">
         <v>16</v>
       </c>
-      <c r="C26" s="100"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="53"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="61">
+      <c r="C26" s="95"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="90"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="96">
         <v>17</v>
       </c>
-      <c r="C27" s="100"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="53"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="61">
+      <c r="C27" s="95"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="90"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="96">
         <v>18</v>
       </c>
-      <c r="C28" s="100"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="53"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B29" s="61">
+      <c r="C28" s="95"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="90"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="96">
         <v>19</v>
       </c>
-      <c r="C29" s="100"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="53"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B30" s="61">
+      <c r="C29" s="95"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="90"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="96">
         <v>20</v>
       </c>
-      <c r="C30" s="100"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="53"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="61">
+      <c r="C30" s="95"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="90"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="96">
         <v>21</v>
       </c>
-      <c r="C31" s="100"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="53"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B32" s="61">
+      <c r="C31" s="95"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="90"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="96">
         <v>22</v>
       </c>
-      <c r="C32" s="100"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="53"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B33" s="61">
+      <c r="C32" s="95"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="90"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="96">
         <v>23</v>
       </c>
-      <c r="C33" s="100"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="53"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B34" s="61">
+      <c r="C33" s="95"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="90"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="96">
         <v>24</v>
       </c>
-      <c r="C34" s="100"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="53"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B35" s="61">
+      <c r="C34" s="95"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="90"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="96">
         <v>25</v>
       </c>
-      <c r="C35" s="100"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="53"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="61">
+      <c r="C35" s="95"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="91"/>
+      <c r="L35" s="90"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="96">
         <v>26</v>
       </c>
-      <c r="C36" s="100"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="53"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B37" s="61">
+      <c r="C36" s="95"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="90"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="96">
         <v>27</v>
       </c>
-      <c r="C37" s="100"/>
-      <c r="D37" s="98"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="53"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B38" s="61">
+      <c r="C37" s="95"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="91"/>
+      <c r="L37" s="90"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="96">
         <v>28</v>
       </c>
-      <c r="C38" s="100"/>
-      <c r="D38" s="98"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="63"/>
-      <c r="L38" s="53"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B39" s="61">
+      <c r="C38" s="95"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="91"/>
+      <c r="L38" s="90"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="96">
         <v>29</v>
       </c>
-      <c r="C39" s="100"/>
-      <c r="D39" s="98"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="53"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B40" s="61">
+      <c r="C39" s="95"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="90"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="96">
         <v>30</v>
       </c>
-      <c r="C40" s="100"/>
-      <c r="D40" s="98"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="53"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B41" s="61">
+      <c r="C40" s="95"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="91"/>
+      <c r="L40" s="90"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="96">
         <v>31</v>
       </c>
-      <c r="C41" s="100"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="53"/>
-    </row>
-    <row r="42" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="62">
+      <c r="C41" s="95"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="90"/>
+      <c r="K41" s="91"/>
+      <c r="L41" s="90"/>
+    </row>
+    <row r="42" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="89">
         <v>32</v>
       </c>
-      <c r="C42" s="101"/>
-      <c r="D42" s="102"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="64"/>
-      <c r="L42" s="55"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="83"/>
+      <c r="K42" s="84"/>
+      <c r="L42" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K3:L3"/>
@@ -5915,194 +6241,17 @@
     <mergeCell ref="C5:D6"/>
     <mergeCell ref="G5:H6"/>
     <mergeCell ref="I5:J6"/>
-    <mergeCell ref="K5:L6"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.5" style="103" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="9" style="103"/>
-    <col min="11" max="11" width="9.875" style="103" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="103"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="112" t="s">
-        <v>335</v>
-      </c>
-      <c r="C1" s="112" t="s">
-        <v>334</v>
-      </c>
-      <c r="D1" s="111" t="s">
-        <v>333</v>
-      </c>
-      <c r="E1" s="111" t="s">
-        <v>332</v>
-      </c>
-      <c r="F1" s="110" t="s">
-        <v>331</v>
-      </c>
-      <c r="G1" s="110" t="s">
-        <v>330</v>
-      </c>
-      <c r="H1" s="109" t="s">
-        <v>329</v>
-      </c>
-      <c r="I1" s="109" t="s">
-        <v>328</v>
-      </c>
-      <c r="J1" s="108" t="s">
-        <v>327</v>
-      </c>
-      <c r="K1" s="108" t="s">
-        <v>326</v>
-      </c>
-      <c r="L1" s="107" t="s">
-        <v>325</v>
-      </c>
-      <c r="M1" s="107" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="103" t="s">
-        <v>323</v>
-      </c>
-      <c r="B2" s="103">
-        <v>12</v>
-      </c>
-      <c r="C2" s="103">
-        <v>10</v>
-      </c>
-      <c r="D2" s="103">
-        <v>14</v>
-      </c>
-      <c r="E2" s="103">
-        <v>8</v>
-      </c>
-      <c r="F2" s="103">
-        <v>11</v>
-      </c>
-      <c r="G2" s="103">
-        <v>12</v>
-      </c>
-      <c r="I2" s="103">
-        <v>17</v>
-      </c>
-      <c r="J2" s="103">
-        <v>4</v>
-      </c>
-      <c r="K2" s="103">
-        <v>18</v>
-      </c>
-      <c r="L2" s="103">
-        <v>16</v>
-      </c>
-      <c r="M2" s="103">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="103" t="s">
-        <v>322</v>
-      </c>
-      <c r="B3" s="103">
-        <v>10</v>
-      </c>
-      <c r="C3" s="103">
-        <v>10</v>
-      </c>
-      <c r="D3" s="103">
-        <v>10</v>
-      </c>
-      <c r="E3" s="103">
-        <v>6</v>
-      </c>
-      <c r="F3" s="103">
-        <v>13</v>
-      </c>
-      <c r="G3" s="103">
-        <v>13</v>
-      </c>
-      <c r="I3" s="103">
-        <v>12</v>
-      </c>
-      <c r="J3" s="103">
-        <v>4</v>
-      </c>
-      <c r="K3" s="103">
-        <v>11</v>
-      </c>
-      <c r="L3" s="103" t="s">
-        <v>321</v>
-      </c>
-      <c r="M3" s="103">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="103" t="s">
-        <v>320</v>
-      </c>
-      <c r="B4" s="104" t="s">
-        <v>319</v>
-      </c>
-      <c r="C4" s="104" t="s">
-        <v>318</v>
-      </c>
-      <c r="D4" s="104" t="s">
-        <v>317</v>
-      </c>
-      <c r="E4" s="104" t="s">
-        <v>316</v>
-      </c>
-      <c r="F4" s="106" t="s">
-        <v>315</v>
-      </c>
-      <c r="J4" s="105" t="s">
-        <v>314</v>
-      </c>
-      <c r="K4" s="104" t="s">
-        <v>313</v>
-      </c>
-      <c r="M4" s="104" t="s">
-        <v>312</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/TOEIC-materials/2. Dạy kèm/Nội dung học.xlsx
+++ b/TOEIC-materials/2. Dạy kèm/Nội dung học.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBFA3B3-766A-456C-A850-7B54D8E1D736}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B6C920-6719-4BDC-9BF1-F7A11E69F87C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lộ trình học LC Cơ Bản" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="328">
   <si>
     <t>Luyện Tập Part 2</t>
   </si>
@@ -59,12 +59,6 @@
   </si>
   <si>
     <t>Part 2.5: Câu hỏi lựa chọn, câu hỏi Which</t>
-  </si>
-  <si>
-    <t>Part 2.6: Câu hỏi trần thuật, câu mệnh lệnh</t>
-  </si>
-  <si>
-    <t>Ôn tập</t>
   </si>
   <si>
     <t>Ôn tập Part 5 &amp; 6</t>
@@ -886,9 +880,6 @@
   </si>
   <si>
     <t>Part 3.3</t>
-  </si>
-  <si>
-    <t>LỘ TRÌNH HỌC - KHOÁ CƠ BẢN</t>
   </si>
   <si>
     <t>LỘ TRÌNH HỌC READING - KHOÁ CƠ BẢN</t>
@@ -1007,45 +998,21 @@
     <t>Where</t>
   </si>
   <si>
-    <t>Luyện tập Part 3</t>
-  </si>
-  <si>
     <t>Part 1.2: Tranh có đồ vật / phong cảnh</t>
   </si>
   <si>
     <t>Giải đề</t>
   </si>
   <si>
-    <t>Not Recommended</t>
-  </si>
-  <si>
     <t>Nâng cao</t>
   </si>
   <si>
     <t>Cơ bản</t>
   </si>
   <si>
-    <t>900+</t>
-  </si>
-  <si>
-    <t>750+</t>
-  </si>
-  <si>
-    <t>600+</t>
-  </si>
-  <si>
-    <t>450+</t>
-  </si>
-  <si>
-    <t>BẢNG GIÁ DẠY TOEIC (tính theo buổi từ 1,5 - 2 tiếng)</t>
-  </si>
-  <si>
     <t>Số buổi</t>
   </si>
   <si>
-    <t>750+, học từ cơ bản đến nâng cao, nhưng thầy sẽ giúp em chinh phục được</t>
-  </si>
-  <si>
     <t>Mục tiêu</t>
   </si>
   <si>
@@ -1061,38 +1028,52 @@
     <t>Địa chỉ</t>
   </si>
   <si>
-    <t>Nguyễn Thị Thúy</t>
-  </si>
-  <si>
     <t>Tên</t>
   </si>
   <si>
-    <t>Học tại nhà thầy,
-442 Hoàng Văn Thái rồi gọi thầy ra đón</t>
-  </si>
-  <si>
-    <t>Tuần đầu: T4 18h30, T7 15h00
-Từ tuần thứ 2 có thể thay đổi</t>
-  </si>
-  <si>
-    <t>0983 751 463</t>
-  </si>
-  <si>
-    <t>4.320.000
-Giảm 50% vì là người thầy thương
-(sau khi thi thật mới tính chuyện trả học phí)</t>
+    <t>Khóa</t>
+  </si>
+  <si>
+    <t>BẢNG GIÁ DẠY TOEIC</t>
+  </si>
+  <si>
+    <t>Học phí  (tính theo buổi 2 tiếng)</t>
+  </si>
+  <si>
+    <t>Phát âm</t>
+  </si>
+  <si>
+    <t>Luyện tập Part 3</t>
+  </si>
+  <si>
+    <t>Part 2.6: Câu trần thuật, câu mệnh lệnh</t>
+  </si>
+  <si>
+    <t>LỘ TRÌNH HỌC LISTENING - KHOÁ CƠ BẢN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0\ [$₫-42A]_-;\-* #,##0\ [$₫-42A]_-;_-* &quot;-&quot;??\ [$₫-42A]_-;_-@_-"/>
+  </numFmts>
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1768,470 +1749,494 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="5" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="2" borderId="21" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="2" borderId="20" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="5" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="2" borderId="21" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="20" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="20" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="36" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="20" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
+    <cellStyle name="Comma" xfId="6" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 2 2" xfId="5" xr:uid="{04270A36-8093-4D03-9672-EC95322B6873}"/>
@@ -2584,25 +2589,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="119" t="s">
-        <v>283</v>
-      </c>
-      <c r="B1" s="119"/>
+      <c r="A1" s="115" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" s="115"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
@@ -2613,132 +2618,140 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="50">
+      <c r="A3" s="174">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="175" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="174">
+        <v>2</v>
+      </c>
+      <c r="B4" s="175" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="174">
+        <v>3</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="174">
+        <v>4</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="174">
+        <v>5</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="174">
+        <v>6</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="174">
+        <v>7</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="174">
+        <v>8</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="174">
+        <v>9</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="174">
+        <v>10</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="174">
+        <v>11</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="174">
+        <v>12</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="174">
+        <v>13</v>
+      </c>
+      <c r="B15" s="50" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="50">
-        <v>2</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="50">
-        <v>3</v>
-      </c>
-      <c r="B5" s="51" t="s">
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="174">
+        <v>14</v>
+      </c>
+      <c r="B16" s="50" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="50">
-        <v>4</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="50">
-        <v>5</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="50">
-        <v>6</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="50">
-        <v>7</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="50">
-        <v>8</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="50">
-        <v>9</v>
-      </c>
-      <c r="B11" s="51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="50">
-        <v>10</v>
-      </c>
-      <c r="B12" s="51" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="50">
-        <v>11</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="50">
-        <v>12</v>
-      </c>
-      <c r="B14" s="51" t="s">
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="174">
+        <v>15</v>
+      </c>
+      <c r="B17" s="50" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="50">
-        <v>13</v>
-      </c>
-      <c r="B15" s="51" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="50">
-        <v>14</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="50">
-        <v>15</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>313</v>
-      </c>
-    </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="50">
+      <c r="A18" s="174">
         <v>16</v>
       </c>
-      <c r="B18" s="68" t="s">
-        <v>14</v>
-      </c>
+      <c r="B18" s="67" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="176"/>
+      <c r="B19" s="177"/>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="176"/>
+      <c r="B20" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2754,7 +2767,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2764,19 +2777,19 @@
     <col min="3" max="3" width="71.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="57" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
-        <v>284</v>
-      </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
+    <row r="1" spans="1:3" s="56" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="116" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -2820,7 +2833,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>11</v>
@@ -2834,7 +2847,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2856,7 +2869,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2864,10 +2877,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2878,7 +2891,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2889,7 +2902,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2897,10 +2910,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2908,21 +2921,21 @@
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="52" t="s">
-        <v>19</v>
+      <c r="B15" s="51" t="s">
+        <v>17</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2930,10 +2943,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2941,122 +2954,122 @@
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="52" t="s">
-        <v>19</v>
+      <c r="B18" s="51" t="s">
+        <v>17</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="71"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="70"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="55"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="54"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="55"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="54"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="55"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="54"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="55"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="54"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="55"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="54"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="55"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="54"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="55"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="54"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="55"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="54"/>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="55"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="54"/>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="55"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="54"/>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="56"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="55"/>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="56"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="55"/>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="56"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="55"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="55"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="54"/>
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="55"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="72"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="56"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="55"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="72"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="56"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="55"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="72"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="56"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="55"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="73"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="74"/>
+      <c r="A38" s="72"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3088,973 +3101,973 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E1" s="44"/>
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="124" t="s">
-        <v>229</v>
+      <c r="A2" s="117" t="s">
+        <v>227</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E2" s="44"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="125"/>
+      <c r="A3" s="118"/>
       <c r="B3" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E3" s="44"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="125"/>
+      <c r="A4" s="118"/>
       <c r="B4" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E4" s="44"/>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="125"/>
+      <c r="A5" s="118"/>
       <c r="B5" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E5" s="44"/>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="125"/>
+      <c r="A6" s="118"/>
       <c r="B6" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E6" s="44"/>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="125"/>
+      <c r="A7" s="118"/>
       <c r="B7" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E7" s="44"/>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="125"/>
+      <c r="A8" s="118"/>
       <c r="B8" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="E8" s="44"/>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="125"/>
+      <c r="A9" s="118"/>
       <c r="B9" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E9" s="44"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="125"/>
+      <c r="A10" s="118"/>
       <c r="B10" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E10" s="44"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="125"/>
+      <c r="A11" s="118"/>
       <c r="B11" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E11" s="44"/>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="125"/>
+      <c r="A12" s="118"/>
       <c r="B12" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E12" s="44"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="126"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E13" s="44"/>
       <c r="F13" s="44"/>
       <c r="G13" s="44"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="124" t="s">
-        <v>230</v>
+      <c r="A14" s="117" t="s">
+        <v>228</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E14" s="44"/>
       <c r="F14" s="44"/>
       <c r="G14" s="44"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="125"/>
+      <c r="A15" s="118"/>
       <c r="B15" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E15" s="44"/>
       <c r="F15" s="44"/>
       <c r="G15" s="44"/>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="125"/>
+      <c r="A16" s="118"/>
       <c r="B16" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E16" s="44"/>
       <c r="F16" s="44"/>
       <c r="G16" s="44"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="125"/>
+      <c r="A17" s="118"/>
       <c r="B17" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E17" s="44"/>
       <c r="F17" s="44"/>
       <c r="G17" s="44"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="125"/>
+      <c r="A18" s="118"/>
       <c r="B18" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E18" s="44"/>
       <c r="F18" s="44"/>
       <c r="G18" s="44"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="125"/>
+      <c r="A19" s="118"/>
       <c r="B19" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E19" s="44"/>
       <c r="F19" s="44"/>
       <c r="G19" s="44"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="125"/>
+      <c r="A20" s="118"/>
       <c r="B20" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E20" s="44"/>
       <c r="F20" s="44"/>
       <c r="G20" s="44"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="125"/>
+      <c r="A21" s="118"/>
       <c r="B21" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E21" s="44"/>
       <c r="F21" s="44"/>
       <c r="G21" s="44"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="125"/>
+      <c r="A22" s="118"/>
       <c r="B22" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E22" s="44"/>
       <c r="F22" s="44"/>
       <c r="G22" s="44"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="125"/>
+      <c r="A23" s="118"/>
       <c r="B23" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E23" s="44"/>
       <c r="F23" s="44"/>
       <c r="G23" s="44"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="125"/>
+      <c r="A24" s="118"/>
       <c r="B24" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E24" s="44"/>
       <c r="F24" s="44"/>
       <c r="G24" s="44"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="124" t="s">
-        <v>231</v>
+      <c r="A25" s="117" t="s">
+        <v>229</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E25" s="44"/>
       <c r="F25" s="44"/>
       <c r="G25" s="44"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="125"/>
+      <c r="A26" s="118"/>
       <c r="B26" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E26" s="44"/>
       <c r="F26" s="44"/>
       <c r="G26" s="44"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="125"/>
+      <c r="A27" s="118"/>
       <c r="B27" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E27" s="44"/>
       <c r="F27" s="44"/>
       <c r="G27" s="44"/>
     </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="125"/>
+      <c r="A28" s="118"/>
       <c r="B28" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E28" s="44"/>
       <c r="F28" s="44"/>
       <c r="G28" s="44"/>
     </row>
     <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="125"/>
+      <c r="A29" s="118"/>
       <c r="B29" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="D29" s="25" t="s">
         <v>113</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>115</v>
       </c>
       <c r="E29" s="44"/>
       <c r="F29" s="44"/>
       <c r="G29" s="44"/>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="125"/>
+      <c r="A30" s="118"/>
       <c r="B30" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E30" s="44"/>
       <c r="F30" s="44"/>
       <c r="G30" s="44"/>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="125"/>
+      <c r="A31" s="118"/>
       <c r="B31" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E31" s="44"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="125"/>
+      <c r="A32" s="118"/>
       <c r="B32" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E32" s="44"/>
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
     </row>
     <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="125"/>
+      <c r="A33" s="118"/>
       <c r="B33" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E33" s="44"/>
       <c r="F33" s="44"/>
       <c r="G33" s="44"/>
     </row>
     <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="125"/>
+      <c r="A34" s="118"/>
       <c r="B34" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E34" s="44"/>
       <c r="F34" s="44"/>
       <c r="G34" s="44"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="124" t="s">
-        <v>232</v>
+      <c r="A35" s="117" t="s">
+        <v>230</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E35" s="44"/>
       <c r="F35" s="44"/>
       <c r="G35" s="44"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="125"/>
+      <c r="A36" s="118"/>
       <c r="B36" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E36" s="44"/>
       <c r="F36" s="44"/>
       <c r="G36" s="44"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="125"/>
+      <c r="A37" s="118"/>
       <c r="B37" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E37" s="44"/>
       <c r="F37" s="44"/>
       <c r="G37" s="44"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="125"/>
+      <c r="A38" s="118"/>
       <c r="B38" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E38" s="44"/>
       <c r="F38" s="44"/>
       <c r="G38" s="44"/>
     </row>
     <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="125"/>
+      <c r="A39" s="118"/>
       <c r="B39" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="D39" s="25" t="s">
         <v>113</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>115</v>
       </c>
       <c r="E39" s="44"/>
       <c r="F39" s="44"/>
       <c r="G39" s="44"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="125"/>
+      <c r="A40" s="118"/>
       <c r="B40" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E40" s="44"/>
       <c r="F40" s="44"/>
       <c r="G40" s="44"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="125"/>
+      <c r="A41" s="118"/>
       <c r="B41" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E41" s="44"/>
       <c r="F41" s="44"/>
       <c r="G41" s="44"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="125"/>
+      <c r="A42" s="118"/>
       <c r="B42" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E42" s="44"/>
       <c r="F42" s="44"/>
       <c r="G42" s="44"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="125"/>
+      <c r="A43" s="118"/>
       <c r="B43" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E43" s="44"/>
       <c r="F43" s="44"/>
       <c r="G43" s="44"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="125"/>
+      <c r="A44" s="118"/>
       <c r="B44" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E44" s="44"/>
       <c r="F44" s="44"/>
       <c r="G44" s="44"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="124" t="s">
-        <v>233</v>
+      <c r="A45" s="117" t="s">
+        <v>231</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E45" s="44"/>
       <c r="F45" s="44"/>
       <c r="G45" s="44"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="125"/>
+      <c r="A46" s="118"/>
       <c r="B46" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C46" s="46" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
       <c r="G46" s="44"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="125"/>
+      <c r="A47" s="118"/>
       <c r="B47" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C47" s="46" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E47" s="44"/>
       <c r="F47" s="44"/>
       <c r="G47" s="44"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="125"/>
+      <c r="A48" s="118"/>
       <c r="B48" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C48" s="46" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E48" s="44"/>
       <c r="F48" s="44"/>
       <c r="G48" s="44"/>
     </row>
     <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="125"/>
+      <c r="A49" s="118"/>
       <c r="B49" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C49" s="46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E49" s="44"/>
       <c r="F49" s="44"/>
       <c r="G49" s="44"/>
     </row>
     <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="125"/>
+      <c r="A50" s="118"/>
       <c r="B50" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C50" s="46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E50" s="44"/>
       <c r="F50" s="44"/>
       <c r="G50" s="44"/>
     </row>
     <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="125"/>
+      <c r="A51" s="118"/>
       <c r="B51" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C51" s="46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E51" s="44"/>
       <c r="F51" s="44"/>
       <c r="G51" s="44"/>
     </row>
     <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="125"/>
+      <c r="A52" s="118"/>
       <c r="B52" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C52" s="46" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E52" s="44"/>
       <c r="F52" s="44"/>
       <c r="G52" s="44"/>
     </row>
     <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="125"/>
+      <c r="A53" s="118"/>
       <c r="B53" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C53" s="46" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E53" s="44"/>
       <c r="F53" s="44"/>
       <c r="G53" s="44"/>
     </row>
     <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="125"/>
+      <c r="A54" s="118"/>
       <c r="B54" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C54" s="46" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E54" s="44"/>
       <c r="F54" s="44"/>
       <c r="G54" s="44"/>
     </row>
     <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="121" t="s">
-        <v>210</v>
+      <c r="A55" s="120" t="s">
+        <v>208</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E55" s="44"/>
       <c r="F55" s="44"/>
       <c r="G55" s="44"/>
     </row>
     <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="122"/>
+      <c r="A56" s="121"/>
       <c r="B56" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E56" s="44"/>
       <c r="F56" s="44"/>
       <c r="G56" s="44"/>
     </row>
     <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="122"/>
+      <c r="A57" s="121"/>
       <c r="B57" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E57" s="44"/>
       <c r="F57" s="44"/>
       <c r="G57" s="44"/>
     </row>
     <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="122"/>
+      <c r="A58" s="121"/>
       <c r="B58" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E58" s="44"/>
       <c r="F58" s="44"/>
       <c r="G58" s="44"/>
     </row>
     <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="122"/>
+      <c r="A59" s="121"/>
       <c r="B59" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E59" s="44"/>
       <c r="F59" s="44"/>
       <c r="G59" s="44"/>
     </row>
     <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="122"/>
+      <c r="A60" s="121"/>
       <c r="B60" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E60" s="44"/>
       <c r="F60" s="44"/>
       <c r="G60" s="44"/>
     </row>
     <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="122"/>
+      <c r="A61" s="121"/>
       <c r="B61" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E61" s="44"/>
       <c r="F61" s="44"/>
       <c r="G61" s="44"/>
     </row>
     <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="122"/>
+      <c r="A62" s="121"/>
       <c r="B62" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E62" s="44"/>
       <c r="F62" s="44"/>
       <c r="G62" s="44"/>
     </row>
     <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="122"/>
+      <c r="A63" s="121"/>
       <c r="B63" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E63" s="44"/>
       <c r="F63" s="44"/>
       <c r="G63" s="44"/>
     </row>
     <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="123"/>
+      <c r="A64" s="122"/>
       <c r="B64" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E64" s="44">
         <v>33</v>
@@ -4063,152 +4076,152 @@
       <c r="G64" s="44"/>
     </row>
     <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="124" t="s">
-        <v>208</v>
+      <c r="A65" s="117" t="s">
+        <v>206</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E65" s="44"/>
       <c r="F65" s="44"/>
       <c r="G65" s="44"/>
     </row>
     <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="125"/>
+      <c r="A66" s="118"/>
       <c r="B66" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C66" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E66" s="44"/>
       <c r="F66" s="44"/>
       <c r="G66" s="44"/>
     </row>
     <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="125"/>
+      <c r="A67" s="118"/>
       <c r="B67" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E67" s="44"/>
       <c r="F67" s="44"/>
       <c r="G67" s="44"/>
     </row>
     <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="125"/>
+      <c r="A68" s="118"/>
       <c r="B68" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C68" s="34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E68" s="44"/>
       <c r="F68" s="44"/>
       <c r="G68" s="44"/>
     </row>
     <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="125"/>
+      <c r="A69" s="118"/>
       <c r="B69" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C69" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E69" s="44"/>
       <c r="F69" s="44"/>
       <c r="G69" s="44"/>
     </row>
     <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="125"/>
+      <c r="A70" s="118"/>
       <c r="B70" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C70" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E70" s="44"/>
       <c r="F70" s="44"/>
       <c r="G70" s="44"/>
     </row>
     <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="125"/>
+      <c r="A71" s="118"/>
       <c r="B71" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E71" s="44"/>
       <c r="F71" s="44"/>
       <c r="G71" s="44"/>
     </row>
     <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="125"/>
+      <c r="A72" s="118"/>
       <c r="B72" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C72" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E72" s="44"/>
       <c r="F72" s="44"/>
       <c r="G72" s="44"/>
     </row>
     <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="122"/>
+      <c r="A73" s="121"/>
       <c r="B73" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E73" s="44"/>
       <c r="F73" s="44"/>
       <c r="G73" s="44"/>
     </row>
     <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="126"/>
+      <c r="A74" s="119"/>
       <c r="B74" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C74" s="35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E74" s="44">
         <v>25</v>
@@ -4217,152 +4230,152 @@
       <c r="G74" s="44"/>
     </row>
     <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="124" t="s">
-        <v>209</v>
+      <c r="A75" s="117" t="s">
+        <v>207</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E75" s="44"/>
       <c r="F75" s="44"/>
       <c r="G75" s="44"/>
     </row>
     <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="125"/>
+      <c r="A76" s="118"/>
       <c r="B76" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E76" s="44"/>
       <c r="F76" s="44"/>
       <c r="G76" s="44"/>
     </row>
     <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="125"/>
+      <c r="A77" s="118"/>
       <c r="B77" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E77" s="44"/>
       <c r="F77" s="44"/>
       <c r="G77" s="44"/>
     </row>
     <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="125"/>
+      <c r="A78" s="118"/>
       <c r="B78" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C78" s="39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E78" s="44"/>
       <c r="F78" s="44"/>
       <c r="G78" s="44"/>
     </row>
     <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="125"/>
+      <c r="A79" s="118"/>
       <c r="B79" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E79" s="44"/>
       <c r="F79" s="44"/>
       <c r="G79" s="44"/>
     </row>
     <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="125"/>
+      <c r="A80" s="118"/>
       <c r="B80" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C80" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E80" s="44"/>
       <c r="F80" s="44"/>
       <c r="G80" s="44"/>
     </row>
     <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="125"/>
+      <c r="A81" s="118"/>
       <c r="B81" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E81" s="44"/>
       <c r="F81" s="44"/>
       <c r="G81" s="44"/>
     </row>
     <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="125"/>
+      <c r="A82" s="118"/>
       <c r="B82" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E82" s="44"/>
       <c r="F82" s="44"/>
       <c r="G82" s="44"/>
     </row>
     <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="125"/>
+      <c r="A83" s="118"/>
       <c r="B83" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C83" s="30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E83" s="44"/>
       <c r="F83" s="44"/>
       <c r="G83" s="44"/>
     </row>
     <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="126"/>
+      <c r="A84" s="119"/>
       <c r="B84" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C84" s="41" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E84" s="44">
         <v>30</v>
@@ -4371,152 +4384,152 @@
       <c r="G84" s="44"/>
     </row>
     <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="124" t="s">
-        <v>211</v>
+      <c r="A85" s="117" t="s">
+        <v>209</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E85" s="44"/>
       <c r="F85" s="44"/>
       <c r="G85" s="44"/>
     </row>
     <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="125"/>
+      <c r="A86" s="118"/>
       <c r="B86" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C86" s="30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E86" s="44"/>
       <c r="F86" s="44"/>
       <c r="G86" s="44"/>
     </row>
     <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="125"/>
+      <c r="A87" s="118"/>
       <c r="B87" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C87" s="30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E87" s="44"/>
       <c r="F87" s="44"/>
       <c r="G87" s="44"/>
     </row>
     <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="125"/>
+      <c r="A88" s="118"/>
       <c r="B88" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C88" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E88" s="44"/>
       <c r="F88" s="44"/>
       <c r="G88" s="44"/>
     </row>
     <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="125"/>
+      <c r="A89" s="118"/>
       <c r="B89" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C89" s="30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E89" s="44"/>
       <c r="F89" s="44"/>
       <c r="G89" s="44"/>
     </row>
     <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="125"/>
+      <c r="A90" s="118"/>
       <c r="B90" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C90" s="30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E90" s="44"/>
       <c r="F90" s="44"/>
       <c r="G90" s="44"/>
     </row>
     <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="125"/>
+      <c r="A91" s="118"/>
       <c r="B91" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C91" s="39" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E91" s="44"/>
       <c r="F91" s="44"/>
       <c r="G91" s="44"/>
     </row>
     <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="125"/>
+      <c r="A92" s="118"/>
       <c r="B92" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C92" s="39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E92" s="44"/>
       <c r="F92" s="44"/>
       <c r="G92" s="44"/>
     </row>
     <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="125"/>
+      <c r="A93" s="118"/>
       <c r="B93" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E93" s="44"/>
       <c r="F93" s="44"/>
       <c r="G93" s="44"/>
     </row>
     <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="126"/>
+      <c r="A94" s="119"/>
       <c r="B94" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E94" s="44">
         <v>36</v>
@@ -4525,122 +4538,122 @@
       <c r="G94" s="44"/>
     </row>
     <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="124" t="s">
-        <v>212</v>
+      <c r="A95" s="117" t="s">
+        <v>210</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C95" s="33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E95" s="44"/>
       <c r="F95" s="44"/>
       <c r="G95" s="44"/>
     </row>
     <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="125"/>
+      <c r="A96" s="118"/>
       <c r="B96" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C96" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E96" s="44"/>
       <c r="F96" s="44"/>
       <c r="G96" s="44"/>
     </row>
     <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="125"/>
+      <c r="A97" s="118"/>
       <c r="B97" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E97" s="44"/>
       <c r="F97" s="44"/>
       <c r="G97" s="44"/>
     </row>
     <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="125"/>
+      <c r="A98" s="118"/>
       <c r="B98" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E98" s="44"/>
       <c r="F98" s="44"/>
       <c r="G98" s="44"/>
     </row>
     <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="125"/>
+      <c r="A99" s="118"/>
       <c r="B99" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C99" s="34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E99" s="44"/>
       <c r="F99" s="44"/>
       <c r="G99" s="44"/>
     </row>
     <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="125"/>
+      <c r="A100" s="118"/>
       <c r="B100" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C100" s="42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E100" s="44"/>
       <c r="F100" s="44"/>
       <c r="G100" s="44"/>
     </row>
     <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="125"/>
+      <c r="A101" s="118"/>
       <c r="B101" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C101" s="42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E101" s="44"/>
       <c r="F101" s="44"/>
       <c r="G101" s="44"/>
     </row>
     <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="125"/>
+      <c r="A102" s="118"/>
       <c r="B102" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E102" s="44">
         <v>26</v>
@@ -4649,122 +4662,122 @@
       <c r="G102" s="44"/>
     </row>
     <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="121" t="s">
-        <v>213</v>
+      <c r="A103" s="120" t="s">
+        <v>211</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C103" s="33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E103" s="44"/>
       <c r="F103" s="44"/>
       <c r="G103" s="44"/>
     </row>
     <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="122"/>
+      <c r="A104" s="121"/>
       <c r="B104" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C104" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="D104" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>166</v>
       </c>
       <c r="E104" s="44"/>
       <c r="F104" s="44"/>
       <c r="G104" s="44"/>
     </row>
     <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="122"/>
+      <c r="A105" s="121"/>
       <c r="B105" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C105" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E105" s="44"/>
       <c r="F105" s="44"/>
       <c r="G105" s="44"/>
     </row>
     <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="122"/>
+      <c r="A106" s="121"/>
       <c r="B106" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C106" s="34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E106" s="44"/>
       <c r="F106" s="44"/>
       <c r="G106" s="44"/>
     </row>
     <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="122"/>
+      <c r="A107" s="121"/>
       <c r="B107" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C107" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="D107" s="12" t="s">
         <v>165</v>
-      </c>
-      <c r="D107" s="12" t="s">
-        <v>167</v>
       </c>
       <c r="E107" s="44"/>
       <c r="F107" s="44"/>
       <c r="G107" s="44"/>
     </row>
     <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="122"/>
+      <c r="A108" s="121"/>
       <c r="B108" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C108" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E108" s="44"/>
       <c r="F108" s="23"/>
       <c r="G108" s="23"/>
     </row>
     <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="122"/>
+      <c r="A109" s="121"/>
       <c r="B109" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C109" s="34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E109" s="44"/>
       <c r="F109" s="23"/>
       <c r="G109" s="23"/>
     </row>
     <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="123"/>
+      <c r="A110" s="122"/>
       <c r="B110" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C110" s="43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E110" s="44">
         <v>23</v>
@@ -4773,122 +4786,122 @@
       <c r="G110" s="44"/>
     </row>
     <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="121" t="s">
-        <v>214</v>
+      <c r="A111" s="120" t="s">
+        <v>212</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C111" s="40" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E111" s="44"/>
       <c r="F111" s="44"/>
       <c r="G111" s="44"/>
     </row>
     <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="122"/>
+      <c r="A112" s="121"/>
       <c r="B112" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C112" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E112" s="44"/>
       <c r="F112" s="44"/>
       <c r="G112" s="44"/>
     </row>
     <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="122"/>
+      <c r="A113" s="121"/>
       <c r="B113" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C113" s="39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E113" s="44"/>
       <c r="F113" s="44"/>
       <c r="G113" s="44"/>
     </row>
     <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="122"/>
+      <c r="A114" s="121"/>
       <c r="B114" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C114" s="39" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E114" s="44"/>
       <c r="F114" s="44"/>
       <c r="G114" s="44"/>
     </row>
     <row r="115" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="122"/>
+      <c r="A115" s="121"/>
       <c r="B115" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C115" s="39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E115" s="44"/>
       <c r="F115" s="44"/>
       <c r="G115" s="44"/>
     </row>
     <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="122"/>
+      <c r="A116" s="121"/>
       <c r="B116" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C116" s="39" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E116" s="44"/>
       <c r="F116" s="44"/>
       <c r="G116" s="44"/>
     </row>
     <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="122"/>
+      <c r="A117" s="121"/>
       <c r="B117" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C117" s="39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E117" s="44"/>
       <c r="F117" s="44"/>
       <c r="G117" s="44"/>
     </row>
     <row r="118" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="122"/>
+      <c r="A118" s="121"/>
       <c r="B118" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C118" s="41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D118" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E118" s="44">
         <v>29</v>
@@ -4897,385 +4910,385 @@
       <c r="G118" s="44"/>
     </row>
     <row r="119" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="124" t="s">
-        <v>215</v>
+      <c r="A119" s="117" t="s">
+        <v>213</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C119" s="29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E119" s="44"/>
       <c r="F119" s="44"/>
       <c r="G119" s="44"/>
     </row>
     <row r="120" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="125"/>
+      <c r="A120" s="118"/>
       <c r="B120" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C120" s="30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E120" s="44"/>
       <c r="F120" s="44"/>
       <c r="G120" s="44"/>
     </row>
     <row r="121" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="125"/>
+      <c r="A121" s="118"/>
       <c r="B121" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C121" s="39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E121" s="44"/>
       <c r="F121" s="44"/>
       <c r="G121" s="44"/>
     </row>
     <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="125"/>
+      <c r="A122" s="118"/>
       <c r="B122" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C122" s="39" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E122" s="44"/>
       <c r="F122" s="44"/>
       <c r="G122" s="44"/>
     </row>
     <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="125"/>
+      <c r="A123" s="118"/>
       <c r="B123" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C123" s="41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E123" s="44"/>
       <c r="F123" s="44"/>
       <c r="G123" s="44"/>
     </row>
     <row r="124" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="124" t="s">
-        <v>216</v>
+      <c r="A124" s="117" t="s">
+        <v>214</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E124" s="44"/>
       <c r="F124" s="44"/>
       <c r="G124" s="44"/>
     </row>
     <row r="125" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="125"/>
+      <c r="A125" s="118"/>
       <c r="B125" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C125" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E125" s="44"/>
       <c r="F125" s="44"/>
       <c r="G125" s="44"/>
     </row>
     <row r="126" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="125"/>
+      <c r="A126" s="118"/>
       <c r="B126" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C126" s="32" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E126" s="44"/>
       <c r="F126" s="44"/>
       <c r="G126" s="44"/>
     </row>
     <row r="127" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="125"/>
+      <c r="A127" s="118"/>
       <c r="B127" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C127" s="32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E127" s="44"/>
       <c r="F127" s="44"/>
       <c r="G127" s="44"/>
     </row>
     <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="126"/>
+      <c r="A128" s="119"/>
       <c r="B128" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C128" s="39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E128" s="44"/>
       <c r="F128" s="44"/>
       <c r="G128" s="44"/>
     </row>
     <row r="129" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="124" t="s">
-        <v>217</v>
+      <c r="A129" s="117" t="s">
+        <v>215</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C129" s="40" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E129" s="44"/>
       <c r="F129" s="44"/>
       <c r="G129" s="44"/>
     </row>
     <row r="130" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="125"/>
+      <c r="A130" s="118"/>
       <c r="B130" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C130" s="30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E130" s="44"/>
       <c r="F130" s="44"/>
       <c r="G130" s="44"/>
     </row>
     <row r="131" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="125"/>
+      <c r="A131" s="118"/>
       <c r="B131" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C131" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E131" s="44"/>
       <c r="F131" s="44"/>
       <c r="G131" s="44"/>
     </row>
     <row r="132" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="125"/>
+      <c r="A132" s="118"/>
       <c r="B132" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C132" s="30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E132" s="44"/>
       <c r="F132" s="44"/>
       <c r="G132" s="44"/>
     </row>
     <row r="133" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="126"/>
+      <c r="A133" s="119"/>
       <c r="B133" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C133" s="39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E133" s="44"/>
       <c r="F133" s="44"/>
       <c r="G133" s="44"/>
     </row>
     <row r="134" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="124" t="s">
-        <v>218</v>
+      <c r="A134" s="117" t="s">
+        <v>216</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C134" s="33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E134" s="44"/>
       <c r="F134" s="44"/>
       <c r="G134" s="44"/>
     </row>
     <row r="135" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="125"/>
+      <c r="A135" s="118"/>
       <c r="B135" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C135" s="42" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E135" s="44"/>
       <c r="F135" s="44"/>
       <c r="G135" s="44"/>
     </row>
     <row r="136" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="125"/>
+      <c r="A136" s="118"/>
       <c r="B136" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C136" s="42" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E136" s="44"/>
       <c r="F136" s="44"/>
       <c r="G136" s="44"/>
     </row>
     <row r="137" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="125"/>
+      <c r="A137" s="118"/>
       <c r="B137" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C137" s="34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E137" s="44"/>
       <c r="F137" s="44"/>
       <c r="G137" s="44"/>
     </row>
     <row r="138" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="126"/>
+      <c r="A138" s="119"/>
       <c r="B138" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C138" s="45" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E138" s="44"/>
       <c r="F138" s="44"/>
       <c r="G138" s="44"/>
     </row>
     <row r="139" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="124" t="s">
-        <v>219</v>
+      <c r="A139" s="117" t="s">
+        <v>217</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C139" s="40" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E139" s="44"/>
       <c r="F139" s="44"/>
       <c r="G139" s="44"/>
     </row>
     <row r="140" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="125"/>
+      <c r="A140" s="118"/>
       <c r="B140" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C140" s="39" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E140" s="44"/>
       <c r="F140" s="44"/>
       <c r="G140" s="44"/>
     </row>
     <row r="141" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="125"/>
+      <c r="A141" s="118"/>
       <c r="B141" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C141" s="39" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E141" s="44"/>
       <c r="F141" s="44"/>
       <c r="G141" s="44"/>
     </row>
     <row r="142" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="125"/>
+      <c r="A142" s="118"/>
       <c r="B142" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C142" s="30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E142" s="44"/>
       <c r="F142" s="44"/>
       <c r="G142" s="44"/>
     </row>
     <row r="143" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="126"/>
+      <c r="A143" s="119"/>
       <c r="B143" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C143" s="41" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E143" s="44"/>
       <c r="F143" s="44"/>
@@ -5291,6 +5304,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A103:A110"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A111:A118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A134:A138"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A24"/>
     <mergeCell ref="A75:A84"/>
@@ -5301,13 +5321,6 @@
     <mergeCell ref="A25:A34"/>
     <mergeCell ref="A35:A44"/>
     <mergeCell ref="A45:A54"/>
-    <mergeCell ref="A103:A110"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="A111:A118"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="A134:A138"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5324,153 +5337,153 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="58" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="9" style="58"/>
-    <col min="11" max="11" width="9.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="58"/>
+    <col min="1" max="1" width="12.42578125" style="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="9" style="57"/>
+    <col min="11" max="11" width="9.85546875" style="57" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="67" t="s">
-        <v>312</v>
-      </c>
-      <c r="C1" s="67" t="s">
-        <v>311</v>
-      </c>
-      <c r="D1" s="66" t="s">
-        <v>310</v>
-      </c>
-      <c r="E1" s="66" t="s">
+      <c r="B1" s="66" t="s">
         <v>309</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="C1" s="66" t="s">
         <v>308</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="D1" s="65" t="s">
         <v>307</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="E1" s="65" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="F1" s="64" t="s">
         <v>305</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="G1" s="64" t="s">
         <v>304</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="H1" s="63" t="s">
         <v>303</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="I1" s="63" t="s">
         <v>302</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="J1" s="62" t="s">
         <v>301</v>
       </c>
+      <c r="K1" s="62" t="s">
+        <v>300</v>
+      </c>
+      <c r="L1" s="61" t="s">
+        <v>299</v>
+      </c>
+      <c r="M1" s="61" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>300</v>
-      </c>
-      <c r="B2" s="58">
+      <c r="A2" s="57" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="57">
         <v>12</v>
       </c>
-      <c r="C2" s="58">
+      <c r="C2" s="57">
         <v>10</v>
       </c>
-      <c r="D2" s="58">
+      <c r="D2" s="57">
         <v>14</v>
       </c>
-      <c r="E2" s="58">
+      <c r="E2" s="57">
         <v>8</v>
       </c>
-      <c r="F2" s="58">
+      <c r="F2" s="57">
         <v>11</v>
       </c>
-      <c r="G2" s="58">
+      <c r="G2" s="57">
         <v>12</v>
       </c>
-      <c r="I2" s="58">
+      <c r="I2" s="57">
         <v>17</v>
       </c>
-      <c r="J2" s="58">
+      <c r="J2" s="57">
         <v>4</v>
       </c>
-      <c r="K2" s="58">
+      <c r="K2" s="57">
         <v>18</v>
       </c>
-      <c r="L2" s="58">
+      <c r="L2" s="57">
         <v>16</v>
       </c>
-      <c r="M2" s="58">
+      <c r="M2" s="57">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
-        <v>299</v>
-      </c>
-      <c r="B3" s="58">
+      <c r="A3" s="57" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="57">
         <v>10</v>
       </c>
-      <c r="C3" s="58">
+      <c r="C3" s="57">
         <v>10</v>
       </c>
-      <c r="D3" s="58">
+      <c r="D3" s="57">
         <v>10</v>
       </c>
-      <c r="E3" s="58">
+      <c r="E3" s="57">
         <v>6</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="57">
         <v>13</v>
       </c>
-      <c r="G3" s="58">
+      <c r="G3" s="57">
         <v>13</v>
       </c>
-      <c r="I3" s="58">
+      <c r="I3" s="57">
         <v>12</v>
       </c>
-      <c r="J3" s="58">
+      <c r="J3" s="57">
         <v>4</v>
       </c>
-      <c r="K3" s="58">
+      <c r="K3" s="57">
         <v>11</v>
       </c>
-      <c r="L3" s="58" t="s">
-        <v>298</v>
-      </c>
-      <c r="M3" s="58">
+      <c r="L3" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="M3" s="57">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
-        <v>297</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>296</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>295</v>
-      </c>
-      <c r="D4" s="59" t="s">
+      <c r="A4" s="57" t="s">
         <v>294</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="B4" s="58" t="s">
         <v>293</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="C4" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="J4" s="60" t="s">
+      <c r="D4" s="58" t="s">
         <v>291</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="E4" s="58" t="s">
         <v>290</v>
       </c>
-      <c r="M4" s="59" t="s">
+      <c r="F4" s="60" t="s">
         <v>289</v>
+      </c>
+      <c r="J4" s="59" t="s">
+        <v>288</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>287</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -5483,95 +5496,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA5DB01-C41B-4FD6-8D04-CF0BFAB48CC6}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="75"/>
-    <col min="4" max="5" width="18.42578125" style="75" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="75"/>
+    <col min="1" max="1" width="9" style="74" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="74" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="74"/>
+    <col min="4" max="5" width="18.42578125" style="74" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="74"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="123" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" s="123"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" s="114" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
-      <c r="B2" s="79" t="s">
-        <v>322</v>
-      </c>
-      <c r="C2" s="79" t="s">
-        <v>321</v>
-      </c>
-      <c r="D2" s="79" t="s">
-        <v>320</v>
-      </c>
-      <c r="E2" s="79" t="s">
-        <v>319</v>
-      </c>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
-        <v>318</v>
-      </c>
-      <c r="B3" s="76">
+      <c r="A3" s="75" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" s="166">
+        <v>100000</v>
+      </c>
+      <c r="C3" s="172"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="171"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="75" t="s">
+        <v>312</v>
+      </c>
+      <c r="B4" s="167">
         <v>120000</v>
       </c>
-      <c r="C3" s="76">
-        <v>130000</v>
-      </c>
-      <c r="D3" s="78" t="s">
-        <v>316</v>
-      </c>
-      <c r="E3" s="127" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>317</v>
-      </c>
-      <c r="B4" s="127" t="s">
-        <v>316</v>
-      </c>
-      <c r="C4" s="76">
-        <v>140000</v>
-      </c>
-      <c r="D4" s="76">
+      <c r="C4" s="172"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="171"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="75" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5" s="167">
         <v>150000</v>
       </c>
-      <c r="E4" s="127"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
-        <v>315</v>
-      </c>
-      <c r="B5" s="127"/>
-      <c r="C5" s="76">
-        <v>150000</v>
-      </c>
-      <c r="D5" s="76">
-        <v>165000</v>
-      </c>
-      <c r="E5" s="76">
-        <v>180000</v>
-      </c>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5583,657 +5576,630 @@
   <dimension ref="B1:N42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="G7" sqref="G7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="81"/>
-    <col min="2" max="2" width="8.5703125" style="81" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" style="82" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="81" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="81" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="81" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="81" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="81" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="81" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="81" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" style="81" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="81"/>
+    <col min="1" max="1" width="9.140625" style="76"/>
+    <col min="2" max="2" width="8.5703125" style="76" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" style="77" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="76" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="76" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="76" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="76" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="76" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="76" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="76" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="76" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="76" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="76" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="76"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="117" t="s">
-        <v>332</v>
-      </c>
-      <c r="C2" s="147" t="s">
-        <v>331</v>
-      </c>
-      <c r="D2" s="148"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="131"/>
+      <c r="B2" s="112" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" s="158"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="150"/>
     </row>
     <row r="3" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="118" t="s">
-        <v>330</v>
-      </c>
-      <c r="C3" s="136" t="s">
-        <v>333</v>
-      </c>
-      <c r="D3" s="137"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="133"/>
+      <c r="B3" s="113" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="134"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="139"/>
     </row>
     <row r="4" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="118" t="s">
-        <v>329</v>
-      </c>
-      <c r="C4" s="157" t="s">
-        <v>335</v>
-      </c>
-      <c r="D4" s="158"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="135"/>
+      <c r="B4" s="113" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="136"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="133"/>
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="129" t="s">
-        <v>328</v>
-      </c>
-      <c r="C5" s="136" t="s">
-        <v>334</v>
-      </c>
-      <c r="D5" s="137"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="133"/>
+      <c r="B5" s="148" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="134"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="139"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="129"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="162"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="133"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="153"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="139"/>
     </row>
     <row r="7" spans="2:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="118" t="s">
-        <v>327</v>
-      </c>
-      <c r="C7" s="136" t="s">
-        <v>336</v>
-      </c>
-      <c r="D7" s="137"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="132"/>
-      <c r="L7" s="133"/>
+      <c r="B7" s="113" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" s="134"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="139"/>
     </row>
     <row r="8" spans="2:12" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="116" t="s">
-        <v>326</v>
-      </c>
-      <c r="C8" s="165" t="s">
-        <v>325</v>
-      </c>
-      <c r="D8" s="166"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="170"/>
-      <c r="K8" s="167"/>
-      <c r="L8" s="168"/>
+      <c r="B8" s="111" t="s">
+        <v>315</v>
+      </c>
+      <c r="C8" s="126"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="129"/>
     </row>
     <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="115" t="s">
-        <v>324</v>
-      </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="110"/>
+      <c r="B10" s="110" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10" s="109"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="105"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="109">
+      <c r="B11" s="104">
         <v>1</v>
       </c>
-      <c r="C11" s="108"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="98"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="96">
+      <c r="B12" s="91">
         <v>2</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="90"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="85"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="96">
+      <c r="B13" s="91">
         <v>3</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="90"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="85"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="96">
+      <c r="B14" s="91">
         <v>4</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="90"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="85"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="96">
+      <c r="B15" s="91">
         <v>5</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="90"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="85"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="96">
+      <c r="B16" s="91">
         <v>6</v>
       </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="85"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="96">
+      <c r="B17" s="91">
         <v>7</v>
       </c>
-      <c r="C17" s="95"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="85"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="96">
+      <c r="B18" s="91">
         <v>8</v>
       </c>
-      <c r="C18" s="95"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="90"/>
-      <c r="N18" s="97"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="85"/>
+      <c r="N18" s="92"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="96">
+      <c r="B19" s="91">
         <v>9</v>
       </c>
-      <c r="C19" s="95"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="85"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="96">
+      <c r="B20" s="91">
         <v>10</v>
       </c>
-      <c r="C20" s="95"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="85"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="96">
+      <c r="B21" s="91">
         <v>11</v>
       </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="85"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="96">
+      <c r="B22" s="91">
         <v>12</v>
       </c>
-      <c r="C22" s="95"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="85"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="96">
+      <c r="B23" s="91">
         <v>13</v>
       </c>
-      <c r="C23" s="95"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="85"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="96">
+      <c r="B24" s="91">
         <v>14</v>
       </c>
-      <c r="C24" s="95"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="85"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="96">
+      <c r="B25" s="91">
         <v>15</v>
       </c>
-      <c r="C25" s="95"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="85"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="96">
+      <c r="B26" s="91">
         <v>16</v>
       </c>
-      <c r="C26" s="95"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="85"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="96">
+      <c r="B27" s="91">
         <v>17</v>
       </c>
-      <c r="C27" s="95"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="85"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="96">
+      <c r="B28" s="91">
         <v>18</v>
       </c>
-      <c r="C28" s="95"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="85"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="96">
+      <c r="B29" s="91">
         <v>19</v>
       </c>
-      <c r="C29" s="95"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="85"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="96">
+      <c r="B30" s="91">
         <v>20</v>
       </c>
-      <c r="C30" s="95"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="85"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="96">
+      <c r="B31" s="91">
         <v>21</v>
       </c>
-      <c r="C31" s="95"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="85"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="96">
+      <c r="B32" s="91">
         <v>22</v>
       </c>
-      <c r="C32" s="95"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="85"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="96">
+      <c r="B33" s="91">
         <v>23</v>
       </c>
-      <c r="C33" s="95"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="85"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="96">
+      <c r="B34" s="91">
         <v>24</v>
       </c>
-      <c r="C34" s="95"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="85"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="96">
+      <c r="B35" s="91">
         <v>25</v>
       </c>
-      <c r="C35" s="95"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="90"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="85"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="96">
+      <c r="B36" s="91">
         <v>26</v>
       </c>
-      <c r="C36" s="95"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="90"/>
-      <c r="K36" s="91"/>
-      <c r="L36" s="90"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="85"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="96">
+      <c r="B37" s="91">
         <v>27</v>
       </c>
-      <c r="C37" s="95"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="93"/>
-      <c r="I37" s="92"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="91"/>
-      <c r="L37" s="90"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="85"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="96">
+      <c r="B38" s="91">
         <v>28</v>
       </c>
-      <c r="C38" s="95"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="90"/>
-      <c r="K38" s="91"/>
-      <c r="L38" s="90"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="86"/>
+      <c r="L38" s="85"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="96">
+      <c r="B39" s="91">
         <v>29</v>
       </c>
-      <c r="C39" s="95"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="90"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="86"/>
+      <c r="L39" s="85"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="96">
+      <c r="B40" s="91">
         <v>30</v>
       </c>
-      <c r="C40" s="95"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="93"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="91"/>
-      <c r="L40" s="90"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="85"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="96">
+      <c r="B41" s="91">
         <v>31</v>
       </c>
-      <c r="C41" s="95"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="93"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="90"/>
-      <c r="K41" s="91"/>
-      <c r="L41" s="90"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="85"/>
     </row>
     <row r="42" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="89">
+      <c r="B42" s="84">
         <v>32</v>
       </c>
-      <c r="C42" s="88"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="83"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="80"/>
+      <c r="J42" s="78"/>
+      <c r="K42" s="79"/>
+      <c r="L42" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K3:L3"/>
@@ -6250,6 +6216,21 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TOEIC-materials/2. Dạy kèm/Nội dung học.xlsx
+++ b/TOEIC-materials/2. Dạy kèm/Nội dung học.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B6C920-6719-4BDC-9BF1-F7A11E69F87C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBDC5B0-AE4E-4455-BAD3-37DACD3842BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="329">
   <si>
     <t>Luyện Tập Part 2</t>
   </si>
@@ -1051,6 +1051,9 @@
   <si>
     <t>LỘ TRÌNH HỌC LISTENING - KHOÁ CƠ BẢN</t>
   </si>
+  <si>
+    <t>:</t>
+  </si>
 </sst>
 </file>
 
@@ -1058,14 +1061,22 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0\ [$₫-42A]_-;\-* #,##0\ [$₫-42A]_-;_-* &quot;-&quot;??\ [$₫-42A]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ [$₫-42A]_-;\-* #,##0\ [$₫-42A]_-;_-* &quot;-&quot;??\ [$₫-42A]_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1751,489 +1762,490 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="5" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="2" borderId="21" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="20" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="5" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="2" borderId="21" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="20" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="20" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="36" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="6" builtinId="3"/>
@@ -2589,10 +2601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2604,10 +2616,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="128" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="128"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
@@ -2618,23 +2630,23 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="174">
+      <c r="A3" s="123">
         <v>1</v>
       </c>
-      <c r="B3" s="175" t="s">
+      <c r="B3" s="124" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="174">
+      <c r="A4" s="123">
         <v>2</v>
       </c>
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="124" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="174">
+      <c r="A5" s="123">
         <v>3</v>
       </c>
       <c r="B5" s="50" t="s">
@@ -2642,7 +2654,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="174">
+      <c r="A6" s="123">
         <v>4</v>
       </c>
       <c r="B6" s="50" t="s">
@@ -2650,7 +2662,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="174">
+      <c r="A7" s="123">
         <v>5</v>
       </c>
       <c r="B7" s="50" t="s">
@@ -2658,7 +2670,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="174">
+      <c r="A8" s="123">
         <v>6</v>
       </c>
       <c r="B8" s="50" t="s">
@@ -2666,7 +2678,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="174">
+      <c r="A9" s="123">
         <v>7</v>
       </c>
       <c r="B9" s="50" t="s">
@@ -2674,7 +2686,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="174">
+      <c r="A10" s="123">
         <v>8</v>
       </c>
       <c r="B10" s="50" t="s">
@@ -2682,7 +2694,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="174">
+      <c r="A11" s="123">
         <v>9</v>
       </c>
       <c r="B11" s="50" t="s">
@@ -2690,7 +2702,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="174">
+      <c r="A12" s="123">
         <v>10</v>
       </c>
       <c r="B12" s="50" t="s">
@@ -2698,7 +2710,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="174">
+      <c r="A13" s="123">
         <v>11</v>
       </c>
       <c r="B13" s="50" t="s">
@@ -2706,7 +2718,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="174">
+      <c r="A14" s="123">
         <v>12</v>
       </c>
       <c r="B14" s="50" t="s">
@@ -2714,7 +2726,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="174">
+      <c r="A15" s="123">
         <v>13</v>
       </c>
       <c r="B15" s="50" t="s">
@@ -2722,36 +2734,41 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="174">
+      <c r="A16" s="123">
         <v>14</v>
       </c>
       <c r="B16" s="50" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="174">
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="123">
         <v>15</v>
       </c>
       <c r="B17" s="50" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="174">
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="123">
         <v>16</v>
       </c>
       <c r="B18" s="67" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="176"/>
-      <c r="B19" s="177"/>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="176"/>
-      <c r="B20" s="178"/>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="125"/>
+      <c r="B19" s="126"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="125"/>
+      <c r="B20" s="127"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="179" t="s">
+        <v>328</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2767,7 +2784,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2778,11 +2795,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="56" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="129" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -3117,7 +3134,7 @@
       <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="130" t="s">
         <v>227</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -3134,7 +3151,7 @@
       <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="118"/>
+      <c r="A3" s="131"/>
       <c r="B3" s="12" t="s">
         <v>23</v>
       </c>
@@ -3149,7 +3166,7 @@
       <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="118"/>
+      <c r="A4" s="131"/>
       <c r="B4" s="12" t="s">
         <v>20</v>
       </c>
@@ -3164,7 +3181,7 @@
       <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="118"/>
+      <c r="A5" s="131"/>
       <c r="B5" s="12" t="s">
         <v>112</v>
       </c>
@@ -3179,7 +3196,7 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="118"/>
+      <c r="A6" s="131"/>
       <c r="B6" s="12" t="s">
         <v>111</v>
       </c>
@@ -3194,7 +3211,7 @@
       <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="118"/>
+      <c r="A7" s="131"/>
       <c r="B7" s="12" t="s">
         <v>108</v>
       </c>
@@ -3209,7 +3226,7 @@
       <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="118"/>
+      <c r="A8" s="131"/>
       <c r="B8" s="12" t="s">
         <v>107</v>
       </c>
@@ -3224,7 +3241,7 @@
       <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="118"/>
+      <c r="A9" s="131"/>
       <c r="B9" s="12" t="s">
         <v>122</v>
       </c>
@@ -3239,7 +3256,7 @@
       <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="118"/>
+      <c r="A10" s="131"/>
       <c r="B10" s="12" t="s">
         <v>121</v>
       </c>
@@ -3254,7 +3271,7 @@
       <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="118"/>
+      <c r="A11" s="131"/>
       <c r="B11" s="12" t="s">
         <v>120</v>
       </c>
@@ -3269,7 +3286,7 @@
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="118"/>
+      <c r="A12" s="131"/>
       <c r="B12" s="12" t="s">
         <v>119</v>
       </c>
@@ -3284,7 +3301,7 @@
       <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="119"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="11" t="s">
         <v>118</v>
       </c>
@@ -3299,7 +3316,7 @@
       <c r="G13" s="44"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="117" t="s">
+      <c r="A14" s="130" t="s">
         <v>228</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -3316,7 +3333,7 @@
       <c r="G14" s="44"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="118"/>
+      <c r="A15" s="131"/>
       <c r="B15" s="12" t="s">
         <v>23</v>
       </c>
@@ -3331,7 +3348,7 @@
       <c r="G15" s="44"/>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="118"/>
+      <c r="A16" s="131"/>
       <c r="B16" s="12" t="s">
         <v>20</v>
       </c>
@@ -3346,7 +3363,7 @@
       <c r="G16" s="44"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="118"/>
+      <c r="A17" s="131"/>
       <c r="B17" s="12" t="s">
         <v>112</v>
       </c>
@@ -3361,7 +3378,7 @@
       <c r="G17" s="44"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="118"/>
+      <c r="A18" s="131"/>
       <c r="B18" s="12" t="s">
         <v>111</v>
       </c>
@@ -3376,7 +3393,7 @@
       <c r="G18" s="44"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="118"/>
+      <c r="A19" s="131"/>
       <c r="B19" s="12" t="s">
         <v>108</v>
       </c>
@@ -3391,7 +3408,7 @@
       <c r="G19" s="44"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="118"/>
+      <c r="A20" s="131"/>
       <c r="B20" s="12" t="s">
         <v>107</v>
       </c>
@@ -3406,7 +3423,7 @@
       <c r="G20" s="44"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="118"/>
+      <c r="A21" s="131"/>
       <c r="B21" s="12" t="s">
         <v>122</v>
       </c>
@@ -3421,7 +3438,7 @@
       <c r="G21" s="44"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="118"/>
+      <c r="A22" s="131"/>
       <c r="B22" s="12" t="s">
         <v>121</v>
       </c>
@@ -3436,7 +3453,7 @@
       <c r="G22" s="44"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="118"/>
+      <c r="A23" s="131"/>
       <c r="B23" s="12" t="s">
         <v>120</v>
       </c>
@@ -3451,7 +3468,7 @@
       <c r="G23" s="44"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="118"/>
+      <c r="A24" s="131"/>
       <c r="B24" s="11" t="s">
         <v>119</v>
       </c>
@@ -3466,7 +3483,7 @@
       <c r="G24" s="44"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="117" t="s">
+      <c r="A25" s="130" t="s">
         <v>229</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -3483,7 +3500,7 @@
       <c r="G25" s="44"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="118"/>
+      <c r="A26" s="131"/>
       <c r="B26" s="14" t="s">
         <v>23</v>
       </c>
@@ -3498,7 +3515,7 @@
       <c r="G26" s="44"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="118"/>
+      <c r="A27" s="131"/>
       <c r="B27" s="14" t="s">
         <v>20</v>
       </c>
@@ -3513,7 +3530,7 @@
       <c r="G27" s="44"/>
     </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="118"/>
+      <c r="A28" s="131"/>
       <c r="B28" s="14" t="s">
         <v>112</v>
       </c>
@@ -3528,7 +3545,7 @@
       <c r="G28" s="44"/>
     </row>
     <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="118"/>
+      <c r="A29" s="131"/>
       <c r="B29" s="14" t="s">
         <v>111</v>
       </c>
@@ -3543,7 +3560,7 @@
       <c r="G29" s="44"/>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="118"/>
+      <c r="A30" s="131"/>
       <c r="B30" s="14" t="s">
         <v>108</v>
       </c>
@@ -3558,7 +3575,7 @@
       <c r="G30" s="44"/>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="118"/>
+      <c r="A31" s="131"/>
       <c r="B31" s="14" t="s">
         <v>107</v>
       </c>
@@ -3573,7 +3590,7 @@
       <c r="G31" s="44"/>
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="118"/>
+      <c r="A32" s="131"/>
       <c r="B32" s="14" t="s">
         <v>122</v>
       </c>
@@ -3588,7 +3605,7 @@
       <c r="G32" s="44"/>
     </row>
     <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="118"/>
+      <c r="A33" s="131"/>
       <c r="B33" s="14" t="s">
         <v>121</v>
       </c>
@@ -3603,7 +3620,7 @@
       <c r="G33" s="44"/>
     </row>
     <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="118"/>
+      <c r="A34" s="131"/>
       <c r="B34" s="14" t="s">
         <v>120</v>
       </c>
@@ -3618,7 +3635,7 @@
       <c r="G34" s="44"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="117" t="s">
+      <c r="A35" s="130" t="s">
         <v>230</v>
       </c>
       <c r="B35" s="13" t="s">
@@ -3635,7 +3652,7 @@
       <c r="G35" s="44"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="118"/>
+      <c r="A36" s="131"/>
       <c r="B36" s="12" t="s">
         <v>23</v>
       </c>
@@ -3650,7 +3667,7 @@
       <c r="G36" s="44"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="118"/>
+      <c r="A37" s="131"/>
       <c r="B37" s="12" t="s">
         <v>20</v>
       </c>
@@ -3665,7 +3682,7 @@
       <c r="G37" s="44"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="118"/>
+      <c r="A38" s="131"/>
       <c r="B38" s="12" t="s">
         <v>112</v>
       </c>
@@ -3680,7 +3697,7 @@
       <c r="G38" s="44"/>
     </row>
     <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="118"/>
+      <c r="A39" s="131"/>
       <c r="B39" s="12" t="s">
         <v>111</v>
       </c>
@@ -3695,7 +3712,7 @@
       <c r="G39" s="44"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="118"/>
+      <c r="A40" s="131"/>
       <c r="B40" s="12" t="s">
         <v>108</v>
       </c>
@@ -3710,7 +3727,7 @@
       <c r="G40" s="44"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="118"/>
+      <c r="A41" s="131"/>
       <c r="B41" s="12" t="s">
         <v>107</v>
       </c>
@@ -3725,7 +3742,7 @@
       <c r="G41" s="44"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="118"/>
+      <c r="A42" s="131"/>
       <c r="B42" s="12" t="s">
         <v>122</v>
       </c>
@@ -3740,7 +3757,7 @@
       <c r="G42" s="44"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="118"/>
+      <c r="A43" s="131"/>
       <c r="B43" s="12" t="s">
         <v>121</v>
       </c>
@@ -3755,7 +3772,7 @@
       <c r="G43" s="44"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="118"/>
+      <c r="A44" s="131"/>
       <c r="B44" s="11" t="s">
         <v>120</v>
       </c>
@@ -3770,7 +3787,7 @@
       <c r="G44" s="44"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="117" t="s">
+      <c r="A45" s="130" t="s">
         <v>231</v>
       </c>
       <c r="B45" s="13" t="s">
@@ -3787,7 +3804,7 @@
       <c r="G45" s="44"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="118"/>
+      <c r="A46" s="131"/>
       <c r="B46" s="12" t="s">
         <v>23</v>
       </c>
@@ -3802,7 +3819,7 @@
       <c r="G46" s="44"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="118"/>
+      <c r="A47" s="131"/>
       <c r="B47" s="12" t="s">
         <v>20</v>
       </c>
@@ -3817,7 +3834,7 @@
       <c r="G47" s="44"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="118"/>
+      <c r="A48" s="131"/>
       <c r="B48" s="12" t="s">
         <v>112</v>
       </c>
@@ -3832,7 +3849,7 @@
       <c r="G48" s="44"/>
     </row>
     <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="118"/>
+      <c r="A49" s="131"/>
       <c r="B49" s="12" t="s">
         <v>111</v>
       </c>
@@ -3847,7 +3864,7 @@
       <c r="G49" s="44"/>
     </row>
     <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="118"/>
+      <c r="A50" s="131"/>
       <c r="B50" s="12" t="s">
         <v>108</v>
       </c>
@@ -3862,7 +3879,7 @@
       <c r="G50" s="44"/>
     </row>
     <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="118"/>
+      <c r="A51" s="131"/>
       <c r="B51" s="12" t="s">
         <v>107</v>
       </c>
@@ -3877,7 +3894,7 @@
       <c r="G51" s="44"/>
     </row>
     <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="118"/>
+      <c r="A52" s="131"/>
       <c r="B52" s="12" t="s">
         <v>122</v>
       </c>
@@ -3892,7 +3909,7 @@
       <c r="G52" s="44"/>
     </row>
     <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="118"/>
+      <c r="A53" s="131"/>
       <c r="B53" s="12" t="s">
         <v>121</v>
       </c>
@@ -3907,7 +3924,7 @@
       <c r="G53" s="44"/>
     </row>
     <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="118"/>
+      <c r="A54" s="131"/>
       <c r="B54" s="11" t="s">
         <v>120</v>
       </c>
@@ -3922,7 +3939,7 @@
       <c r="G54" s="44"/>
     </row>
     <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="120" t="s">
+      <c r="A55" s="133" t="s">
         <v>208</v>
       </c>
       <c r="B55" s="13" t="s">
@@ -3939,7 +3956,7 @@
       <c r="G55" s="44"/>
     </row>
     <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="121"/>
+      <c r="A56" s="134"/>
       <c r="B56" s="12" t="s">
         <v>23</v>
       </c>
@@ -3954,7 +3971,7 @@
       <c r="G56" s="44"/>
     </row>
     <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="121"/>
+      <c r="A57" s="134"/>
       <c r="B57" s="12" t="s">
         <v>20</v>
       </c>
@@ -3969,7 +3986,7 @@
       <c r="G57" s="44"/>
     </row>
     <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="121"/>
+      <c r="A58" s="134"/>
       <c r="B58" s="12" t="s">
         <v>112</v>
       </c>
@@ -3984,7 +4001,7 @@
       <c r="G58" s="44"/>
     </row>
     <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="121"/>
+      <c r="A59" s="134"/>
       <c r="B59" s="12" t="s">
         <v>111</v>
       </c>
@@ -3999,7 +4016,7 @@
       <c r="G59" s="44"/>
     </row>
     <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="121"/>
+      <c r="A60" s="134"/>
       <c r="B60" s="12" t="s">
         <v>108</v>
       </c>
@@ -4014,7 +4031,7 @@
       <c r="G60" s="44"/>
     </row>
     <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="121"/>
+      <c r="A61" s="134"/>
       <c r="B61" s="12" t="s">
         <v>107</v>
       </c>
@@ -4029,7 +4046,7 @@
       <c r="G61" s="44"/>
     </row>
     <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="121"/>
+      <c r="A62" s="134"/>
       <c r="B62" s="12" t="s">
         <v>122</v>
       </c>
@@ -4044,7 +4061,7 @@
       <c r="G62" s="44"/>
     </row>
     <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="121"/>
+      <c r="A63" s="134"/>
       <c r="B63" s="12" t="s">
         <v>121</v>
       </c>
@@ -4059,7 +4076,7 @@
       <c r="G63" s="44"/>
     </row>
     <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="122"/>
+      <c r="A64" s="135"/>
       <c r="B64" s="12" t="s">
         <v>120</v>
       </c>
@@ -4076,7 +4093,7 @@
       <c r="G64" s="44"/>
     </row>
     <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="117" t="s">
+      <c r="A65" s="130" t="s">
         <v>206</v>
       </c>
       <c r="B65" s="15" t="s">
@@ -4093,7 +4110,7 @@
       <c r="G65" s="44"/>
     </row>
     <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="118"/>
+      <c r="A66" s="131"/>
       <c r="B66" s="12" t="s">
         <v>23</v>
       </c>
@@ -4108,7 +4125,7 @@
       <c r="G66" s="44"/>
     </row>
     <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="118"/>
+      <c r="A67" s="131"/>
       <c r="B67" s="12" t="s">
         <v>20</v>
       </c>
@@ -4123,7 +4140,7 @@
       <c r="G67" s="44"/>
     </row>
     <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="118"/>
+      <c r="A68" s="131"/>
       <c r="B68" s="14" t="s">
         <v>112</v>
       </c>
@@ -4138,7 +4155,7 @@
       <c r="G68" s="44"/>
     </row>
     <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="118"/>
+      <c r="A69" s="131"/>
       <c r="B69" s="12" t="s">
         <v>111</v>
       </c>
@@ -4153,7 +4170,7 @@
       <c r="G69" s="44"/>
     </row>
     <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="118"/>
+      <c r="A70" s="131"/>
       <c r="B70" s="14" t="s">
         <v>108</v>
       </c>
@@ -4168,7 +4185,7 @@
       <c r="G70" s="44"/>
     </row>
     <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="118"/>
+      <c r="A71" s="131"/>
       <c r="B71" s="14" t="s">
         <v>107</v>
       </c>
@@ -4183,7 +4200,7 @@
       <c r="G71" s="44"/>
     </row>
     <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="118"/>
+      <c r="A72" s="131"/>
       <c r="B72" s="12" t="s">
         <v>122</v>
       </c>
@@ -4198,7 +4215,7 @@
       <c r="G72" s="44"/>
     </row>
     <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="121"/>
+      <c r="A73" s="134"/>
       <c r="B73" s="12" t="s">
         <v>121</v>
       </c>
@@ -4213,7 +4230,7 @@
       <c r="G73" s="44"/>
     </row>
     <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="119"/>
+      <c r="A74" s="132"/>
       <c r="B74" s="14" t="s">
         <v>120</v>
       </c>
@@ -4230,7 +4247,7 @@
       <c r="G74" s="44"/>
     </row>
     <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="117" t="s">
+      <c r="A75" s="130" t="s">
         <v>207</v>
       </c>
       <c r="B75" s="15" t="s">
@@ -4247,7 +4264,7 @@
       <c r="G75" s="44"/>
     </row>
     <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="118"/>
+      <c r="A76" s="131"/>
       <c r="B76" s="14" t="s">
         <v>23</v>
       </c>
@@ -4262,7 +4279,7 @@
       <c r="G76" s="44"/>
     </row>
     <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="118"/>
+      <c r="A77" s="131"/>
       <c r="B77" s="14" t="s">
         <v>20</v>
       </c>
@@ -4277,7 +4294,7 @@
       <c r="G77" s="44"/>
     </row>
     <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="118"/>
+      <c r="A78" s="131"/>
       <c r="B78" s="14" t="s">
         <v>112</v>
       </c>
@@ -4292,7 +4309,7 @@
       <c r="G78" s="44"/>
     </row>
     <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="118"/>
+      <c r="A79" s="131"/>
       <c r="B79" s="14" t="s">
         <v>111</v>
       </c>
@@ -4307,7 +4324,7 @@
       <c r="G79" s="44"/>
     </row>
     <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="118"/>
+      <c r="A80" s="131"/>
       <c r="B80" s="14" t="s">
         <v>108</v>
       </c>
@@ -4322,7 +4339,7 @@
       <c r="G80" s="44"/>
     </row>
     <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="118"/>
+      <c r="A81" s="131"/>
       <c r="B81" s="14" t="s">
         <v>107</v>
       </c>
@@ -4337,7 +4354,7 @@
       <c r="G81" s="44"/>
     </row>
     <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="118"/>
+      <c r="A82" s="131"/>
       <c r="B82" s="14" t="s">
         <v>122</v>
       </c>
@@ -4352,7 +4369,7 @@
       <c r="G82" s="44"/>
     </row>
     <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="118"/>
+      <c r="A83" s="131"/>
       <c r="B83" s="14" t="s">
         <v>121</v>
       </c>
@@ -4367,7 +4384,7 @@
       <c r="G83" s="44"/>
     </row>
     <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="119"/>
+      <c r="A84" s="132"/>
       <c r="B84" s="14" t="s">
         <v>120</v>
       </c>
@@ -4384,7 +4401,7 @@
       <c r="G84" s="44"/>
     </row>
     <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="117" t="s">
+      <c r="A85" s="130" t="s">
         <v>209</v>
       </c>
       <c r="B85" s="15" t="s">
@@ -4401,7 +4418,7 @@
       <c r="G85" s="44"/>
     </row>
     <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="118"/>
+      <c r="A86" s="131"/>
       <c r="B86" s="14" t="s">
         <v>23</v>
       </c>
@@ -4416,7 +4433,7 @@
       <c r="G86" s="44"/>
     </row>
     <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="118"/>
+      <c r="A87" s="131"/>
       <c r="B87" s="14" t="s">
         <v>20</v>
       </c>
@@ -4431,7 +4448,7 @@
       <c r="G87" s="44"/>
     </row>
     <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="118"/>
+      <c r="A88" s="131"/>
       <c r="B88" s="14" t="s">
         <v>112</v>
       </c>
@@ -4446,7 +4463,7 @@
       <c r="G88" s="44"/>
     </row>
     <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="118"/>
+      <c r="A89" s="131"/>
       <c r="B89" s="14" t="s">
         <v>111</v>
       </c>
@@ -4461,7 +4478,7 @@
       <c r="G89" s="44"/>
     </row>
     <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="118"/>
+      <c r="A90" s="131"/>
       <c r="B90" s="14" t="s">
         <v>108</v>
       </c>
@@ -4476,7 +4493,7 @@
       <c r="G90" s="44"/>
     </row>
     <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="118"/>
+      <c r="A91" s="131"/>
       <c r="B91" s="14" t="s">
         <v>107</v>
       </c>
@@ -4491,7 +4508,7 @@
       <c r="G91" s="44"/>
     </row>
     <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="118"/>
+      <c r="A92" s="131"/>
       <c r="B92" s="14" t="s">
         <v>122</v>
       </c>
@@ -4506,7 +4523,7 @@
       <c r="G92" s="44"/>
     </row>
     <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="118"/>
+      <c r="A93" s="131"/>
       <c r="B93" s="14" t="s">
         <v>121</v>
       </c>
@@ -4521,7 +4538,7 @@
       <c r="G93" s="44"/>
     </row>
     <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="119"/>
+      <c r="A94" s="132"/>
       <c r="B94" s="14" t="s">
         <v>120</v>
       </c>
@@ -4538,7 +4555,7 @@
       <c r="G94" s="44"/>
     </row>
     <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="117" t="s">
+      <c r="A95" s="130" t="s">
         <v>210</v>
       </c>
       <c r="B95" s="15" t="s">
@@ -4555,7 +4572,7 @@
       <c r="G95" s="44"/>
     </row>
     <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="118"/>
+      <c r="A96" s="131"/>
       <c r="B96" s="14" t="s">
         <v>23</v>
       </c>
@@ -4570,7 +4587,7 @@
       <c r="G96" s="44"/>
     </row>
     <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="118"/>
+      <c r="A97" s="131"/>
       <c r="B97" s="14" t="s">
         <v>20</v>
       </c>
@@ -4585,7 +4602,7 @@
       <c r="G97" s="44"/>
     </row>
     <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="118"/>
+      <c r="A98" s="131"/>
       <c r="B98" s="14" t="s">
         <v>112</v>
       </c>
@@ -4600,7 +4617,7 @@
       <c r="G98" s="44"/>
     </row>
     <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="118"/>
+      <c r="A99" s="131"/>
       <c r="B99" s="14" t="s">
         <v>111</v>
       </c>
@@ -4615,7 +4632,7 @@
       <c r="G99" s="44"/>
     </row>
     <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="118"/>
+      <c r="A100" s="131"/>
       <c r="B100" s="14" t="s">
         <v>108</v>
       </c>
@@ -4630,7 +4647,7 @@
       <c r="G100" s="44"/>
     </row>
     <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="118"/>
+      <c r="A101" s="131"/>
       <c r="B101" s="14" t="s">
         <v>107</v>
       </c>
@@ -4645,7 +4662,7 @@
       <c r="G101" s="44"/>
     </row>
     <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="118"/>
+      <c r="A102" s="131"/>
       <c r="B102" s="14" t="s">
         <v>122</v>
       </c>
@@ -4662,7 +4679,7 @@
       <c r="G102" s="44"/>
     </row>
     <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="120" t="s">
+      <c r="A103" s="133" t="s">
         <v>211</v>
       </c>
       <c r="B103" s="15" t="s">
@@ -4679,7 +4696,7 @@
       <c r="G103" s="44"/>
     </row>
     <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="121"/>
+      <c r="A104" s="134"/>
       <c r="B104" s="14" t="s">
         <v>23</v>
       </c>
@@ -4694,7 +4711,7 @@
       <c r="G104" s="44"/>
     </row>
     <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="121"/>
+      <c r="A105" s="134"/>
       <c r="B105" s="14" t="s">
         <v>20</v>
       </c>
@@ -4709,7 +4726,7 @@
       <c r="G105" s="44"/>
     </row>
     <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="121"/>
+      <c r="A106" s="134"/>
       <c r="B106" s="14" t="s">
         <v>112</v>
       </c>
@@ -4724,7 +4741,7 @@
       <c r="G106" s="44"/>
     </row>
     <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="121"/>
+      <c r="A107" s="134"/>
       <c r="B107" s="14" t="s">
         <v>111</v>
       </c>
@@ -4739,7 +4756,7 @@
       <c r="G107" s="44"/>
     </row>
     <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="121"/>
+      <c r="A108" s="134"/>
       <c r="B108" s="14" t="s">
         <v>108</v>
       </c>
@@ -4754,7 +4771,7 @@
       <c r="G108" s="23"/>
     </row>
     <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="121"/>
+      <c r="A109" s="134"/>
       <c r="B109" s="14" t="s">
         <v>107</v>
       </c>
@@ -4769,7 +4786,7 @@
       <c r="G109" s="23"/>
     </row>
     <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="122"/>
+      <c r="A110" s="135"/>
       <c r="B110" s="14" t="s">
         <v>122</v>
       </c>
@@ -4786,7 +4803,7 @@
       <c r="G110" s="44"/>
     </row>
     <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="120" t="s">
+      <c r="A111" s="133" t="s">
         <v>212</v>
       </c>
       <c r="B111" s="15" t="s">
@@ -4803,7 +4820,7 @@
       <c r="G111" s="44"/>
     </row>
     <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="121"/>
+      <c r="A112" s="134"/>
       <c r="B112" s="14" t="s">
         <v>23</v>
       </c>
@@ -4818,7 +4835,7 @@
       <c r="G112" s="44"/>
     </row>
     <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="121"/>
+      <c r="A113" s="134"/>
       <c r="B113" s="14" t="s">
         <v>20</v>
       </c>
@@ -4833,7 +4850,7 @@
       <c r="G113" s="44"/>
     </row>
     <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="121"/>
+      <c r="A114" s="134"/>
       <c r="B114" s="14" t="s">
         <v>112</v>
       </c>
@@ -4848,7 +4865,7 @@
       <c r="G114" s="44"/>
     </row>
     <row r="115" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="121"/>
+      <c r="A115" s="134"/>
       <c r="B115" s="14" t="s">
         <v>111</v>
       </c>
@@ -4863,7 +4880,7 @@
       <c r="G115" s="44"/>
     </row>
     <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="121"/>
+      <c r="A116" s="134"/>
       <c r="B116" s="14" t="s">
         <v>108</v>
       </c>
@@ -4878,7 +4895,7 @@
       <c r="G116" s="44"/>
     </row>
     <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="121"/>
+      <c r="A117" s="134"/>
       <c r="B117" s="14" t="s">
         <v>107</v>
       </c>
@@ -4893,7 +4910,7 @@
       <c r="G117" s="44"/>
     </row>
     <row r="118" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="121"/>
+      <c r="A118" s="134"/>
       <c r="B118" s="16" t="s">
         <v>122</v>
       </c>
@@ -4910,7 +4927,7 @@
       <c r="G118" s="44"/>
     </row>
     <row r="119" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="117" t="s">
+      <c r="A119" s="130" t="s">
         <v>213</v>
       </c>
       <c r="B119" s="13" t="s">
@@ -4927,7 +4944,7 @@
       <c r="G119" s="44"/>
     </row>
     <row r="120" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="118"/>
+      <c r="A120" s="131"/>
       <c r="B120" s="12" t="s">
         <v>23</v>
       </c>
@@ -4942,7 +4959,7 @@
       <c r="G120" s="44"/>
     </row>
     <row r="121" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="118"/>
+      <c r="A121" s="131"/>
       <c r="B121" s="12" t="s">
         <v>20</v>
       </c>
@@ -4957,7 +4974,7 @@
       <c r="G121" s="44"/>
     </row>
     <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="118"/>
+      <c r="A122" s="131"/>
       <c r="B122" s="12" t="s">
         <v>112</v>
       </c>
@@ -4972,7 +4989,7 @@
       <c r="G122" s="44"/>
     </row>
     <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="118"/>
+      <c r="A123" s="131"/>
       <c r="B123" s="11" t="s">
         <v>111</v>
       </c>
@@ -4987,7 +5004,7 @@
       <c r="G123" s="44"/>
     </row>
     <row r="124" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="117" t="s">
+      <c r="A124" s="130" t="s">
         <v>214</v>
       </c>
       <c r="B124" s="13" t="s">
@@ -5004,7 +5021,7 @@
       <c r="G124" s="44"/>
     </row>
     <row r="125" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="118"/>
+      <c r="A125" s="131"/>
       <c r="B125" s="12" t="s">
         <v>23</v>
       </c>
@@ -5019,7 +5036,7 @@
       <c r="G125" s="44"/>
     </row>
     <row r="126" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="118"/>
+      <c r="A126" s="131"/>
       <c r="B126" s="12" t="s">
         <v>20</v>
       </c>
@@ -5034,7 +5051,7 @@
       <c r="G126" s="44"/>
     </row>
     <row r="127" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="118"/>
+      <c r="A127" s="131"/>
       <c r="B127" s="12" t="s">
         <v>112</v>
       </c>
@@ -5049,7 +5066,7 @@
       <c r="G127" s="44"/>
     </row>
     <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="119"/>
+      <c r="A128" s="132"/>
       <c r="B128" s="11" t="s">
         <v>111</v>
       </c>
@@ -5064,7 +5081,7 @@
       <c r="G128" s="44"/>
     </row>
     <row r="129" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="117" t="s">
+      <c r="A129" s="130" t="s">
         <v>215</v>
       </c>
       <c r="B129" s="13" t="s">
@@ -5081,7 +5098,7 @@
       <c r="G129" s="44"/>
     </row>
     <row r="130" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="118"/>
+      <c r="A130" s="131"/>
       <c r="B130" s="12" t="s">
         <v>23</v>
       </c>
@@ -5096,7 +5113,7 @@
       <c r="G130" s="44"/>
     </row>
     <row r="131" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="118"/>
+      <c r="A131" s="131"/>
       <c r="B131" s="12" t="s">
         <v>20</v>
       </c>
@@ -5111,7 +5128,7 @@
       <c r="G131" s="44"/>
     </row>
     <row r="132" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="118"/>
+      <c r="A132" s="131"/>
       <c r="B132" s="12" t="s">
         <v>112</v>
       </c>
@@ -5126,7 +5143,7 @@
       <c r="G132" s="44"/>
     </row>
     <row r="133" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="119"/>
+      <c r="A133" s="132"/>
       <c r="B133" s="11" t="s">
         <v>111</v>
       </c>
@@ -5141,7 +5158,7 @@
       <c r="G133" s="44"/>
     </row>
     <row r="134" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="117" t="s">
+      <c r="A134" s="130" t="s">
         <v>216</v>
       </c>
       <c r="B134" s="15" t="s">
@@ -5158,7 +5175,7 @@
       <c r="G134" s="44"/>
     </row>
     <row r="135" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="118"/>
+      <c r="A135" s="131"/>
       <c r="B135" s="14" t="s">
         <v>23</v>
       </c>
@@ -5173,7 +5190,7 @@
       <c r="G135" s="44"/>
     </row>
     <row r="136" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="118"/>
+      <c r="A136" s="131"/>
       <c r="B136" s="14" t="s">
         <v>20</v>
       </c>
@@ -5188,7 +5205,7 @@
       <c r="G136" s="44"/>
     </row>
     <row r="137" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="118"/>
+      <c r="A137" s="131"/>
       <c r="B137" s="14" t="s">
         <v>112</v>
       </c>
@@ -5203,7 +5220,7 @@
       <c r="G137" s="44"/>
     </row>
     <row r="138" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="119"/>
+      <c r="A138" s="132"/>
       <c r="B138" s="16" t="s">
         <v>111</v>
       </c>
@@ -5218,7 +5235,7 @@
       <c r="G138" s="44"/>
     </row>
     <row r="139" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="117" t="s">
+      <c r="A139" s="130" t="s">
         <v>217</v>
       </c>
       <c r="B139" s="13" t="s">
@@ -5235,7 +5252,7 @@
       <c r="G139" s="44"/>
     </row>
     <row r="140" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="118"/>
+      <c r="A140" s="131"/>
       <c r="B140" s="12" t="s">
         <v>23</v>
       </c>
@@ -5250,7 +5267,7 @@
       <c r="G140" s="44"/>
     </row>
     <row r="141" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="118"/>
+      <c r="A141" s="131"/>
       <c r="B141" s="12" t="s">
         <v>20</v>
       </c>
@@ -5265,7 +5282,7 @@
       <c r="G141" s="44"/>
     </row>
     <row r="142" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="118"/>
+      <c r="A142" s="131"/>
       <c r="B142" s="12" t="s">
         <v>112</v>
       </c>
@@ -5280,7 +5297,7 @@
       <c r="G142" s="44"/>
     </row>
     <row r="143" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="119"/>
+      <c r="A143" s="132"/>
       <c r="B143" s="11" t="s">
         <v>111</v>
       </c>
@@ -5510,13 +5527,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="136" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
@@ -5525,42 +5542,42 @@
       <c r="B2" s="114" t="s">
         <v>323</v>
       </c>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
         <v>313</v>
       </c>
-      <c r="B3" s="166">
+      <c r="B3" s="115">
         <v>100000</v>
       </c>
-      <c r="C3" s="172"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="171"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="75" t="s">
         <v>312</v>
       </c>
-      <c r="B4" s="167">
+      <c r="B4" s="116">
         <v>120000</v>
       </c>
-      <c r="C4" s="172"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="171"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="120"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="75" t="s">
         <v>311</v>
       </c>
-      <c r="B5" s="167">
+      <c r="B5" s="116">
         <v>150000</v>
       </c>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5602,104 +5619,104 @@
       <c r="B2" s="112" t="s">
         <v>320</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="150"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="163"/>
     </row>
     <row r="3" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="113" t="s">
         <v>319</v>
       </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="139"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="152"/>
     </row>
     <row r="4" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="113" t="s">
         <v>318</v>
       </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="133"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="146"/>
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="148" t="s">
+      <c r="B5" s="161" t="s">
         <v>317</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="153"/>
-      <c r="K5" s="138"/>
-      <c r="L5" s="139"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="152"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="148"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="153"/>
-      <c r="K6" s="138"/>
-      <c r="L6" s="139"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="152"/>
     </row>
     <row r="7" spans="2:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="113" t="s">
         <v>316</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="139"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="152"/>
     </row>
     <row r="8" spans="2:12" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="111" t="s">
         <v>315</v>
       </c>
-      <c r="C8" s="126"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="131"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="129"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="144"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="142"/>
     </row>
     <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
